--- a/data/hotels_by_city/Houston/Houston_shard_121.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_121.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107859-Reviews-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Near-The-Galleria.h67670.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1107 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r591798518-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107859</t>
+  </si>
+  <si>
+    <t>591798518</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Accommodations &amp; Accommodating Staff! </t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay! The whole place is meticulously clean. The outdoor pool/spa area is inviting - even towels rolled up neatly on the shelves poolside each morning for the guests. The hot items on the breakfast buffet vary each day - which is so appreciated when you’re staying for 5 days. The food is fresh and promptly re-filled by a diligent host who does this 7 days a week...which brings me to the staff. The staff at this hotel are truly exceptional. I was welcomed at check-in by Riaz, who made sure that the parking arrangements in the back lot for my motor coach were adequate. When the breakfast seating area filled up the next morning, they immediately set up additional tables to accommodate the overflow. Jackie &amp; Barbara make the guests feel like we are part of their family. These folks became ‘family’ in the aftermath of the hurricane. They consider guests as ‘family’ and accommodate them accordingly. Kudos, Brandi! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay! The whole place is meticulously clean. The outdoor pool/spa area is inviting - even towels rolled up neatly on the shelves poolside each morning for the guests. The hot items on the breakfast buffet vary each day - which is so appreciated when you’re staying for 5 days. The food is fresh and promptly re-filled by a diligent host who does this 7 days a week...which brings me to the staff. The staff at this hotel are truly exceptional. I was welcomed at check-in by Riaz, who made sure that the parking arrangements in the back lot for my motor coach were adequate. When the breakfast seating area filled up the next morning, they immediately set up additional tables to accommodate the overflow. Jackie &amp; Barbara make the guests feel like we are part of their family. These folks became ‘family’ in the aftermath of the hurricane. They consider guests as ‘family’ and accommodate them accordingly. Kudos, Brandi! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r590531191-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590531191</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting the area. The staff were very friendly and helpful to point us in the direction of some good restaurants.  The room was clean and spacious.  This is a great location for the Galleria area.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r587227966-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587227966</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>We were here for two nights, friendly front desk and staff, hotel is pretty clean, rooms are large, and the beds are comfy.  Was quiet and the free parking is ample.  Good standard breakfast with hot items. For the price and the location this was a good place for us.  Easy access by car to South Houston and freeways.  The Galleria Mall is nearby.  The area around the hotel is ok, but somewhat isolated although there are a few restaurants and bars within a 5 minute walking distance.   It still has a pool/hot tub around the side, but was closed when we were there in June 2018.Depending on the price, I would stay here again as it was easy, quiet, and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were here for two nights, friendly front desk and staff, hotel is pretty clean, rooms are large, and the beds are comfy.  Was quiet and the free parking is ample.  Good standard breakfast with hot items. For the price and the location this was a good place for us.  Easy access by car to South Houston and freeways.  The Galleria Mall is nearby.  The area around the hotel is ok, but somewhat isolated although there are a few restaurants and bars within a 5 minute walking distance.   It still has a pool/hot tub around the side, but was closed when we were there in June 2018.Depending on the price, I would stay here again as it was easy, quiet, and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r552021600-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552021600</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service </t>
+  </si>
+  <si>
+    <t>Ashlynn and the rest of the staff were wonderful. We were given a gift bag upon check in. Rooms could have been a little cleaner, but the friendly staff made up for it. Breakfast had eggs and sausage with peppers and waffles MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Ashlynn and the rest of the staff were wonderful. We were given a gift bag upon check in. Rooms could have been a little cleaner, but the friendly staff made up for it. Breakfast had eggs and sausage with peppers and waffles More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r543916175-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543916175</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Good location, great employees</t>
+  </si>
+  <si>
+    <t>Stayed over Thanksgiving for four nights. Check-in was a breeze, and the lobby and common areas were spotless. Room was large and everything was in good working order.Breakfast was free and had hot and cold items. Nothing too fancy, but better than average choices. The attendant made sure they never ran out of anything and there was a coffee center with different types of coffee - regular, bold, decaf.Main plus was the employees were always helpful and super friendly. Special thanks and kudos to Barb. She checked us in and every time she saw us she made sure we were having a good stay. She was that way with everyone. The other employees were the same way. They all contributed to a very pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Allyson R, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Stayed over Thanksgiving for four nights. Check-in was a breeze, and the lobby and common areas were spotless. Room was large and everything was in good working order.Breakfast was free and had hot and cold items. Nothing too fancy, but better than average choices. The attendant made sure they never ran out of anything and there was a coffee center with different types of coffee - regular, bold, decaf.Main plus was the employees were always helpful and super friendly. Special thanks and kudos to Barb. She checked us in and every time she saw us she made sure we were having a good stay. She was that way with everyone. The other employees were the same way. They all contributed to a very pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r492280466-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492280466</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>will only stay here when we go to houston</t>
+  </si>
+  <si>
+    <t>we stayed 5 nights. The breakfast was great. There was waffles, toast, english muffins, muffins, bagels, fruits, oatmeal, cereals, HOT ITEMS from sausage, egg, made english muffin with egg and sausage, chopped sausage with onion tomato and jalepeno. the hot items changed every morning.  the rooms were comfortable. Jackie at the front desk was a great. The housekeeping ladies and breakfast lady were nice. The  pool is nice. The wifi is good. The tv on the other hand, i wish there was more channels available. I do not think you can beat the price with what you get here anywhere else. All of us were happy (3,8,30, 30 yr old) There were never any suspicious people around. I felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Allyson R, Director of Sales at Comfort Suites - Near the Galleria, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>we stayed 5 nights. The breakfast was great. There was waffles, toast, english muffins, muffins, bagels, fruits, oatmeal, cereals, HOT ITEMS from sausage, egg, made english muffin with egg and sausage, chopped sausage with onion tomato and jalepeno. the hot items changed every morning.  the rooms were comfortable. Jackie at the front desk was a great. The housekeeping ladies and breakfast lady were nice. The  pool is nice. The wifi is good. The tv on the other hand, i wish there was more channels available. I do not think you can beat the price with what you get here anywhere else. All of us were happy (3,8,30, 30 yr old) There were never any suspicious people around. I felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r484055804-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484055804</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for its location and found it to be very clean and well kept. The staff is very eager to help. However, the room 103 that we stayed in had an odor . At first we thought the carpet was just cleaned but the odor lingered for our three days' stay. The shower faucet was leaky and the water pressure was low. He tried to fix it and tried for couple hours and could not fix it. Note to myself, if you walk in the room and it does not smell right, ask to switch right away. We do love the hot breakfast that was different for all three days. She kept the food well stocked and kept the breakfast area clean. This location has a nice out door swimming pool and chair lift for handicapped. The fitness room is small but the equipments are fairly new.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for its location and found it to be very clean and well kept. The staff is very eager to help. However, the room 103 that we stayed in had an odor . At first we thought the carpet was just cleaned but the odor lingered for our three days' stay. The shower faucet was leaky and the water pressure was low. He tried to fix it and tried for couple hours and could not fix it. Note to myself, if you walk in the room and it does not smell right, ask to switch right away. We do love the hot breakfast that was different for all three days. She kept the food well stocked and kept the breakfast area clean. This location has a nice out door swimming pool and chair lift for handicapped. The fitness room is small but the equipments are fairly new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r480559417-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480559417</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Metting Room/Staff</t>
+  </si>
+  <si>
+    <t>I needed to utilize this facilities meeting room for a large group.  The service/staff were exceptional with their help and the meeting room itself. I will use this site again for future group trainings.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed to utilize this facilities meeting room for a large group.  The service/staff were exceptional with their help and the meeting room itself. I will use this site again for future group trainings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r472236777-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472236777</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one week and the experience was very good. Nice staff and very friendly. It comes with breakfast also. There is a small gym and laundry room. There is a outdoor pool and jacuzzi. I recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one week and the experience was very good. Nice staff and very friendly. It comes with breakfast also. There is a small gym and laundry room. There is a outdoor pool and jacuzzi. I recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r459012985-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459012985</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel Mini-Breakfast Buffet.</t>
+  </si>
+  <si>
+    <t>Cons:1. Couch in hotel suite room was flat and uncomfortable. 2. There were signs all over the parking lot saying "Lock All Cars,Take All Belongings Out" ... indicating this hotel property is vulnerable to car burglars. 3. The water pressure in the shower was weak.Pros:1. Good location, literally about 8-10 mins. from the Galleria Mall and other cool stores/restaurants/strip malls all around the area.2. Hotel staff was courteous and friendly. The hotel receptionist was from Brazil, and she made me feel very welcomed.3. Room was nice, large size (but not really a "suite" since there was no actual separation between the beds and couch/living area. 4. TV had free cable.5. The best part was the mini-hotel breakfast in the mornings (I included pics for everyone to see). The eggs, sausage, pastries tasted great. Had a variety of cereal, oatmeal, juice choices, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Allyson R, Director of Sales at Comfort Suites - Near the Galleria, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Cons:1. Couch in hotel suite room was flat and uncomfortable. 2. There were signs all over the parking lot saying "Lock All Cars,Take All Belongings Out" ... indicating this hotel property is vulnerable to car burglars. 3. The water pressure in the shower was weak.Pros:1. Good location, literally about 8-10 mins. from the Galleria Mall and other cool stores/restaurants/strip malls all around the area.2. Hotel staff was courteous and friendly. The hotel receptionist was from Brazil, and she made me feel very welcomed.3. Room was nice, large size (but not really a "suite" since there was no actual separation between the beds and couch/living area. 4. TV had free cable.5. The best part was the mini-hotel breakfast in the mornings (I included pics for everyone to see). The eggs, sausage, pastries tasted great. Had a variety of cereal, oatmeal, juice choices, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r437247536-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437247536</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>here for a wedding - plenty of restaurants and shopping around to fill in the spare time we had.  convenient to the wedding site.  friendly staff, comfortable bed, clean, good breakfastespecially enjoyed chocolate milk for breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>here for a wedding - plenty of restaurants and shopping around to fill in the spare time we had.  convenient to the wedding site.  friendly staff, comfortable bed, clean, good breakfastespecially enjoyed chocolate milk for breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r430980931-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430980931</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>A fantastic hotel &amp; altho it's not downtown we would definitely stay again!!</t>
+  </si>
+  <si>
+    <t>Fantastic hotel with great service, spacious well equipped rooms, airy &amp; comfortable lobby, delicious breakfast, beautiful pool area &amp; very quiet. Girls at the reception desk, Renata &amp; Jacqui were extremely accommodating &amp; helpful. 
+Our room was quiet &amp; had a lovely pool view. Very comfy beds &amp; bathroom had everything you might need including makeup wipes!! Plus top quality coffee for the coffee machine, disposable cups, glasses, plates &amp; cutlery in our room
+Guest Laundry, ice makers &amp; a tiny but well equipped store were some of the other extras this hotel offers. One of the nights we stayed we were too tired to go out so we were able to purchase &amp; cook a meal in the microwave in our room. Iced water &amp; cookies in reception area...the list goes on. A free shuttle to the Galleria too that also dropped us the the Water Wall Park nearby - a must see! We had no problem getting to Downtown &amp; the Museum District by using Uber &amp; had we preferred to use public transport at less than $2 to go anywhere, the stop was only  few mins walk away. 
+As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely...Fantastic hotel with great service, spacious well equipped rooms, airy &amp; comfortable lobby, delicious breakfast, beautiful pool area &amp; very quiet. Girls at the reception desk, Renata &amp; Jacqui were extremely accommodating &amp; helpful. Our room was quiet &amp; had a lovely pool view. Very comfy beds &amp; bathroom had everything you might need including makeup wipes!! Plus top quality coffee for the coffee machine, disposable cups, glasses, plates &amp; cutlery in our roomGuest Laundry, ice makers &amp; a tiny but well equipped store were some of the other extras this hotel offers. One of the nights we stayed we were too tired to go out so we were able to purchase &amp; cook a meal in the microwave in our room. Iced water &amp; cookies in reception area...the list goes on. A free shuttle to the Galleria too that also dropped us the the Water Wall Park nearby - a must see! We had no problem getting to Downtown &amp; the Museum District by using Uber &amp; had we preferred to use public transport at less than $2 to go anywhere, the stop was only  few mins walk away. As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely stay again if we ever get back to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Fantastic hotel with great service, spacious well equipped rooms, airy &amp; comfortable lobby, delicious breakfast, beautiful pool area &amp; very quiet. Girls at the reception desk, Renata &amp; Jacqui were extremely accommodating &amp; helpful. 
+Our room was quiet &amp; had a lovely pool view. Very comfy beds &amp; bathroom had everything you might need including makeup wipes!! Plus top quality coffee for the coffee machine, disposable cups, glasses, plates &amp; cutlery in our room
+Guest Laundry, ice makers &amp; a tiny but well equipped store were some of the other extras this hotel offers. One of the nights we stayed we were too tired to go out so we were able to purchase &amp; cook a meal in the microwave in our room. Iced water &amp; cookies in reception area...the list goes on. A free shuttle to the Galleria too that also dropped us the the Water Wall Park nearby - a must see! We had no problem getting to Downtown &amp; the Museum District by using Uber &amp; had we preferred to use public transport at less than $2 to go anywhere, the stop was only  few mins walk away. 
+As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely...Fantastic hotel with great service, spacious well equipped rooms, airy &amp; comfortable lobby, delicious breakfast, beautiful pool area &amp; very quiet. Girls at the reception desk, Renata &amp; Jacqui were extremely accommodating &amp; helpful. Our room was quiet &amp; had a lovely pool view. Very comfy beds &amp; bathroom had everything you might need including makeup wipes!! Plus top quality coffee for the coffee machine, disposable cups, glasses, plates &amp; cutlery in our roomGuest Laundry, ice makers &amp; a tiny but well equipped store were some of the other extras this hotel offers. One of the nights we stayed we were too tired to go out so we were able to purchase &amp; cook a meal in the microwave in our room. Iced water &amp; cookies in reception area...the list goes on. A free shuttle to the Galleria too that also dropped us the the Water Wall Park nearby - a must see! We had no problem getting to Downtown &amp; the Museum District by using Uber &amp; had we preferred to use public transport at less than $2 to go anywhere, the stop was only  few mins walk away. As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely stay again if we ever get back to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r403787647-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403787647</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Better than average</t>
+  </si>
+  <si>
+    <t>A hotel that accommodates its guest like the Comfort Suites did will definitely get our business again. The room was spacious, the beds just the way we like them, the front desk so helpful and pleasant, breakfast has a wide range of offerings - we recommend this hotel as it had been recommended to us and our friends were right! All around excellent for the price range and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>A hotel that accommodates its guest like the Comfort Suites did will definitely get our business again. The room was spacious, the beds just the way we like them, the front desk so helpful and pleasant, breakfast has a wide range of offerings - we recommend this hotel as it had been recommended to us and our friends were right! All around excellent for the price range and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r387600476-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387600476</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Pretty Average</t>
+  </si>
+  <si>
+    <t>Near Galleria is the best selling point.  Back lot parking is plentiful but would be scary for a single female traveler arriving at night.  Very good breakfast lots to choose from and plentiful and stocked constantly.Room was adequate and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Near Galleria is the best selling point.  Back lot parking is plentiful but would be scary for a single female traveler arriving at night.  Very good breakfast lots to choose from and plentiful and stocked constantly.Room was adequate and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r380718118-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380718118</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Awesome for the Price</t>
+  </si>
+  <si>
+    <t>A friend recommended this hotel, because I had to be in Houston for an emergency hearing and my normal hotel was booked.I was pleasantly surprised. The hotel is relatively inexpensive, located in a decent area. The rooms are clean and very large. This hotel is not a luxury hotel, but it is amazing and excellent for quick business trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>A friend recommended this hotel, because I had to be in Houston for an emergency hearing and my normal hotel was booked.I was pleasantly surprised. The hotel is relatively inexpensive, located in a decent area. The rooms are clean and very large. This hotel is not a luxury hotel, but it is amazing and excellent for quick business trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r361217793-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361217793</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Staff gets it</t>
+  </si>
+  <si>
+    <t>I love this hotel their approach is it is all but customer service. We have stayed here 4 or 5 times and always been very happy with the staff. The hotel is quite affordable for this area. The breakfast is very good and area cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I love this hotel their approach is it is all but customer service. We have stayed here 4 or 5 times and always been very happy with the staff. The hotel is quite affordable for this area. The breakfast is very good and area cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r360203291-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360203291</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>OK place for the price</t>
+  </si>
+  <si>
+    <t>This is a good budget hotel.  Probably below par for what I would expect from Comfort Suites, but only because of the age of the property and furnishing.  Price and location sort of makes up for that making this an OK place to stay.  Just don't expect anything fancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This is a good budget hotel.  Probably below par for what I would expect from Comfort Suites, but only because of the age of the property and furnishing.  Price and location sort of makes up for that making this an OK place to stay.  Just don't expect anything fancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r359919133-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359919133</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>houston Rodeo</t>
+  </si>
+  <si>
+    <t>It was a great location and we were able to get to fair grounds very easily on our own since there was no shuttle provided to rodeo.our stay was very comfortable and staff was very nice. Breakfast was great and our rooms were clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a great location and we were able to get to fair grounds very easily on our own since there was no shuttle provided to rodeo.our stay was very comfortable and staff was very nice. Breakfast was great and our rooms were clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r313802104-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313802104</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Good Choice for this Area</t>
+  </si>
+  <si>
+    <t>Very affordable and clean. There is plenty of free parking and breakfast is very good.  We had a four o'clock wedding and the front desk were very nice to let us check in early. Wifi was free and fast. room was clean and large.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Very affordable and clean. There is plenty of free parking and breakfast is very good.  We had a four o'clock wedding and the front desk were very nice to let us check in early. Wifi was free and fast. room was clean and large.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r307891292-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307891292</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Newly Renovated</t>
+  </si>
+  <si>
+    <t>Found this to be an excellent property. Outstanding staff met all our needs. Breakfast was typical for this hotel chain and was satisfactory. Only downside- needed more space and tables for breakfast. Located near the Gallaria Mall and about 20 minutes from the Reliant Stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>Found this to be an excellent property. Outstanding staff met all our needs. Breakfast was typical for this hotel chain and was satisfactory. Only downside- needed more space and tables for breakfast. Located near the Gallaria Mall and about 20 minutes from the Reliant Stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r290868107-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290868107</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Good and cheap as usual</t>
+  </si>
+  <si>
+    <t>After two years I got the chance to be back in Houston and decided  to return to this hotel. Again I was not disappointed. No rooms but real suites, including appliances to prepare food, plus mid afternoon snack in the lobby,  a pool, free parking and a convenient location in the Galleria district.  Just try it!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>After two years I got the chance to be back in Houston and decided  to return to this hotel. Again I was not disappointed. No rooms but real suites, including appliances to prepare food, plus mid afternoon snack in the lobby,  a pool, free parking and a convenient location in the Galleria district.  Just try it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r284876553-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284876553</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>6 am check in, honeymoon jaccuzi suite, life is good</t>
+  </si>
+  <si>
+    <t>The staff at this hotel really accommodated us by allowing us to check in at 6 am without having to check out until the following morning.  we were given the honeymoon suite with jaccuzzi in the living room, we got charged a $150 fee for smoking in the room, oh well, we did smoke in the room.  overall a great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel really accommodated us by allowing us to check in at 6 am without having to check out until the following morning.  we were given the honeymoon suite with jaccuzzi in the living room, we got charged a $150 fee for smoking in the room, oh well, we did smoke in the room.  overall a great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r273711735-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273711735</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Not a place for a business or company to stay</t>
+  </si>
+  <si>
+    <t>My employee tried to check in there. we did the standard credit card authorization form as usual. Sara called me  back and asked for me to sign off on misc. charges. I told her i circled the room and tax box. She said that was fine. After she got off the phone with me, she demanded $100.00 from my employee for a security. Needless to say, my employee declined. She then gave him my information...Drivers License copy, credit card front and back copy. Who wants their employees to have all of this information? After asking why my guys about what really went on, they said she was rude, and seemed irritated with a credit card authorization charge. Let me tell you, my business involves motel rooms every night, an average of four per day. This place treated my guys like dirt, gave away my private information, I would give them a negative 5 if this review aloud me. This is my first review in my life. I'm disappointed, pissed off, and embarrassed that my guys were treated so poorly. We ended up going to the Days Inn. That's where you should go if youre in that area for business.  By the way, FIRE SARA, if your the Management of Comfort Inn. She's not worth a damn!!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My employee tried to check in there. we did the standard credit card authorization form as usual. Sara called me  back and asked for me to sign off on misc. charges. I told her i circled the room and tax box. She said that was fine. After she got off the phone with me, she demanded $100.00 from my employee for a security. Needless to say, my employee declined. She then gave him my information...Drivers License copy, credit card front and back copy. Who wants their employees to have all of this information? After asking why my guys about what really went on, they said she was rude, and seemed irritated with a credit card authorization charge. Let me tell you, my business involves motel rooms every night, an average of four per day. This place treated my guys like dirt, gave away my private information, I would give them a negative 5 if this review aloud me. This is my first review in my life. I'm disappointed, pissed off, and embarrassed that my guys were treated so poorly. We ended up going to the Days Inn. That's where you should go if youre in that area for business.  By the way, FIRE SARA, if your the Management of Comfort Inn. She's not worth a damn!!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r261806363-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261806363</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>The name says it all</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel for six days in March 2015. Large room (suite) with microwave oven, coffee-maker, ironing board and iron, good toilet, desk, table, etc. etc. A very good breakfast is included in the price. Friendly and helpful staff. Continental travellers would find it convenient to take an adaptor plug for their electrical gadgets. The rodeo was in town and so the price was a little up.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel for six days in March 2015. Large room (suite) with microwave oven, coffee-maker, ironing board and iron, good toilet, desk, table, etc. etc. A very good breakfast is included in the price. Friendly and helpful staff. Continental travellers would find it convenient to take an adaptor plug for their electrical gadgets. The rodeo was in town and so the price was a little up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r244479275-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244479275</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Would stay here again in a minute. This hotel was top notch in every aspect. Good location just off 59 freeway. Large clean and comfortable rooms. The best nights sleep that I have had in a while. Good breakfast, friendly, helpful front desk people, What more could you ask for. If ever in Houston again, I will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Would stay here again in a minute. This hotel was top notch in every aspect. Good location just off 59 freeway. Large clean and comfortable rooms. The best nights sleep that I have had in a while. Good breakfast, friendly, helpful front desk people, What more could you ask for. If ever in Houston again, I will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r234641692-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234641692</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>The changed the name on my reservation and sold my prepaid room!!</t>
+  </si>
+  <si>
+    <t>Got to the hotel and reservation was gone. Found out from corporate that the CHANGED the name on my pre-paid reservation and sold it to someone else!  NEVER heard back from Sanjay Patel the manager. Stay there at least 3 times a year and this is how they treat you?  Shady, shady.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>SanjayTX671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Got to the hotel and reservation was gone. Found out from corporate that the CHANGED the name on my pre-paid reservation and sold it to someone else!  NEVER heard back from Sanjay Patel the manager. Stay there at least 3 times a year and this is how they treat you?  Shady, shady.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r231664259-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231664259</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>BAD CUSTOMER SERVICE  AND THEFT</t>
+  </si>
+  <si>
+    <t>My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!
+I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!
+To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!...My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!  I was too tired to complain anymore, so I went to bed planning on talking to someone in charge the next day.  The next morning I had to leave early for a morning meeting and the GM had not arrived.  I knew I would be gone most of the day, so left my phone number so the GM or owner could call me.  I NEVER got a call. I tried calling myself during the the day, but I was transferred to his VM.  The next morning as I was checking out and I asked the receptionist AGAIN if she could help me make contact with anyone in charge, but she told me there was no one available and she could not do anything.  She couldn't explain WHY my belongings were removed the night before, or WHY my property had been STOLEN from my room.  If you are NOT used to staying at a TRUCK STOP quality hotel near STRIP CLUBS with BAD ATTITUDE UNTRAINED STAFF and belongings could be at risk of THEFT!!!! DO NOT STAY HERE!!!!  You have been WARNED!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>racheltx671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!
+I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!
+To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!...My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!  I was too tired to complain anymore, so I went to bed planning on talking to someone in charge the next day.  The next morning I had to leave early for a morning meeting and the GM had not arrived.  I knew I would be gone most of the day, so left my phone number so the GM or owner could call me.  I NEVER got a call. I tried calling myself during the the day, but I was transferred to his VM.  The next morning as I was checking out and I asked the receptionist AGAIN if she could help me make contact with anyone in charge, but she told me there was no one available and she could not do anything.  She couldn't explain WHY my belongings were removed the night before, or WHY my property had been STOLEN from my room.  If you are NOT used to staying at a TRUCK STOP quality hotel near STRIP CLUBS with BAD ATTITUDE UNTRAINED STAFF and belongings could be at risk of THEFT!!!! DO NOT STAY HERE!!!!  You have been WARNED!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r188313047-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188313047</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>bad beds and slow service</t>
+  </si>
+  <si>
+    <t>When we got to the hotel we were expecting a nice stay. We have stayed at many Choice Hotels and have always had a good stay. In this hotel we had a bed that was so uncomfortable that it gave a patron a back ache, and took the hotel staff 4 days to replace it with a bed that was just a tad bit better. In addition, the room cleaning staff threw away some of our stuff and moved things around.  We are sorry we cannot stay here again or recommend it.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r179534294-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179534294</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Perfect Girlfriend Getaway</t>
+  </si>
+  <si>
+    <t>A good friend from Wisconsin was in Houston for a conference, so I drove down from Dallas to spend the evening with her.  She was already booked for this Comfort Suite.  It was convenient to her conference, and was close to the Galleria for shopping for me, and to some really good restaurants.The room was very comfortable and well appointed.  The bath had granite counters, and a great shower in the shower/tub.There were 2 queen beds which were super comfortable and (shocking!) the pillows were so comfy I didn't even use my own, which I had brought with me.There was also a sofa and a couple of chairs in the room.  Very spacious, very clean, very comfortable.They were having a wine and cheese happy hour in the lobby when we arrived, plus had continental breakfast the next morning.  We didn't use the pool, but it looked clean and inviting.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>A good friend from Wisconsin was in Houston for a conference, so I drove down from Dallas to spend the evening with her.  She was already booked for this Comfort Suite.  It was convenient to her conference, and was close to the Galleria for shopping for me, and to some really good restaurants.The room was very comfortable and well appointed.  The bath had granite counters, and a great shower in the shower/tub.There were 2 queen beds which were super comfortable and (shocking!) the pillows were so comfy I didn't even use my own, which I had brought with me.There was also a sofa and a couple of chairs in the room.  Very spacious, very clean, very comfortable.They were having a wine and cheese happy hour in the lobby when we arrived, plus had continental breakfast the next morning.  We didn't use the pool, but it looked clean and inviting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r162337350-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162337350</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Poor choice for children</t>
+  </si>
+  <si>
+    <t>I am writing this review mostly as a parent of a 2yr old. This hotel seems to suffer from a bad location combined with either financial issues or apathy of the management. I don't know the history of this place, maybe it was better when it was built, but the surrounding area is pretty nasty right now, and the hotel is not untouched by it.
+On our first day, I was walking with my daughter exploring the halls, and observed a prostitute and her client enter the room two doors down from mine, with her pimp/guardian waiting a bit further on. Sure, this can happen at any hotel, but it's the first time in all the hotels that I have used that I have observed this.
+Besides witnessing prostitution two doors down, my biggest issue is with the doors. There is no second deadbolt. It doesn't sound like a big deal, but if you have small children it is. The primary deadbolt automatically opens with the turn of the handle, meaning that your child can open the door from the inside. There is a secondary mechanism that allows the door to open about an inch, just the right size for little fingers. You can imagine the possibilities. 
+There are stumps out front, crawling with fire ants, which attacked my daughters feet as she walked in the grass.
+Other cons: 
+The couch was stained in multiple areas, obvious to anyone. The...I am writing this review mostly as a parent of a 2yr old. This hotel seems to suffer from a bad location combined with either financial issues or apathy of the management. I don't know the history of this place, maybe it was better when it was built, but the surrounding area is pretty nasty right now, and the hotel is not untouched by it.On our first day, I was walking with my daughter exploring the halls, and observed a prostitute and her client enter the room two doors down from mine, with her pimp/guardian waiting a bit further on. Sure, this can happen at any hotel, but it's the first time in all the hotels that I have used that I have observed this.Besides witnessing prostitution two doors down, my biggest issue is with the doors. There is no second deadbolt. It doesn't sound like a big deal, but if you have small children it is. The primary deadbolt automatically opens with the turn of the handle, meaning that your child can open the door from the inside. There is a secondary mechanism that allows the door to open about an inch, just the right size for little fingers. You can imagine the possibilities. There are stumps out front, crawling with fire ants, which attacked my daughters feet as she walked in the grass.Other cons: The couch was stained in multiple areas, obvious to anyone. The faucet was installed lopsided, and the handle and valve itself were completely dysfunctional. The closet is tiny. Pros: This hotel is actually okay. It has its issues, as listed above, and I'm sure there are more that I haven't noticed, but generally it is fine. The pool is great. It has waterfalls, which the kids love.The breakfast is good. Fairly typical of what you might expect.Our room had a mini fridge, as you would expect for something labeled a suite. Very important if you have kids. Flexible LED bedlights are a big plus, along with a separation wall that blocks the light to the other part of the room. We requested a porta-crib, and some extra pillows for ourselves, on short notice. Helped us with that quickly. If it wasn't for the issues of location, I would give Comfort Suites near the Galleria three stars. But seeing that there are panhandlers at every corner, and surely worse people that you don't see, derelict buildings, etc., I can't go average on this one.Also, I read some other reviews here, where the management said they were performing renovations in late 2012. They said this, but we had stained upholstered furniture and a terrible sink...MoreShow less</t>
+  </si>
+  <si>
+    <t>racheltx671, Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>I am writing this review mostly as a parent of a 2yr old. This hotel seems to suffer from a bad location combined with either financial issues or apathy of the management. I don't know the history of this place, maybe it was better when it was built, but the surrounding area is pretty nasty right now, and the hotel is not untouched by it.
+On our first day, I was walking with my daughter exploring the halls, and observed a prostitute and her client enter the room two doors down from mine, with her pimp/guardian waiting a bit further on. Sure, this can happen at any hotel, but it's the first time in all the hotels that I have used that I have observed this.
+Besides witnessing prostitution two doors down, my biggest issue is with the doors. There is no second deadbolt. It doesn't sound like a big deal, but if you have small children it is. The primary deadbolt automatically opens with the turn of the handle, meaning that your child can open the door from the inside. There is a secondary mechanism that allows the door to open about an inch, just the right size for little fingers. You can imagine the possibilities. 
+There are stumps out front, crawling with fire ants, which attacked my daughters feet as she walked in the grass.
+Other cons: 
+The couch was stained in multiple areas, obvious to anyone. The...I am writing this review mostly as a parent of a 2yr old. This hotel seems to suffer from a bad location combined with either financial issues or apathy of the management. I don't know the history of this place, maybe it was better when it was built, but the surrounding area is pretty nasty right now, and the hotel is not untouched by it.On our first day, I was walking with my daughter exploring the halls, and observed a prostitute and her client enter the room two doors down from mine, with her pimp/guardian waiting a bit further on. Sure, this can happen at any hotel, but it's the first time in all the hotels that I have used that I have observed this.Besides witnessing prostitution two doors down, my biggest issue is with the doors. There is no second deadbolt. It doesn't sound like a big deal, but if you have small children it is. The primary deadbolt automatically opens with the turn of the handle, meaning that your child can open the door from the inside. There is a secondary mechanism that allows the door to open about an inch, just the right size for little fingers. You can imagine the possibilities. There are stumps out front, crawling with fire ants, which attacked my daughters feet as she walked in the grass.Other cons: The couch was stained in multiple areas, obvious to anyone. The faucet was installed lopsided, and the handle and valve itself were completely dysfunctional. The closet is tiny. Pros: This hotel is actually okay. It has its issues, as listed above, and I'm sure there are more that I haven't noticed, but generally it is fine. The pool is great. It has waterfalls, which the kids love.The breakfast is good. Fairly typical of what you might expect.Our room had a mini fridge, as you would expect for something labeled a suite. Very important if you have kids. Flexible LED bedlights are a big plus, along with a separation wall that blocks the light to the other part of the room. We requested a porta-crib, and some extra pillows for ourselves, on short notice. Helped us with that quickly. If it wasn't for the issues of location, I would give Comfort Suites near the Galleria three stars. But seeing that there are panhandlers at every corner, and surely worse people that you don't see, derelict buildings, etc., I can't go average on this one.Also, I read some other reviews here, where the management said they were performing renovations in late 2012. They said this, but we had stained upholstered furniture and a terrible sink...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r152773200-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152773200</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Huge Rooms, Good Free Breakfast, Close to Galleria</t>
+  </si>
+  <si>
+    <t>Recently I stayed at this hotel for four nights. I have no complaints at all the room was huge!!! The bed was comfortable and it was centrally located to everything and was just a few blocks away from the highway. The Galleria mall was just a few short blocks away. Plenty of Good restaurants close by. Ruth's Chris was next door. Not a 5 star hotel with lots of amenities but the FREE breakfast was better than some that I've bought at restaurants. I'm not a picky high end traveller so if your not this hotel is perfect if you get it for the right price.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r148327660-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148327660</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Older property, needs updating</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of that location near the Galleria. It's an older property and the wear and tear clearly shows. Unlike many other comfort suites properties that I have been to that are older this one has not been as well maintained.Our room was smaller than usual and you could see an iron had been dropped on the carpet and burned a hole in the carpet. The service was friendly. When we arrived in our room couch bed did not have linens on it.The breakfast was not well laid out but did offer us a choice of sausage or kolchies. Overall it was an average stay for a flag which I have come to expect much more from.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of that location near the Galleria. It's an older property and the wear and tear clearly shows. Unlike many other comfort suites properties that I have been to that are older this one has not been as well maintained.Our room was smaller than usual and you could see an iron had been dropped on the carpet and burned a hole in the carpet. The service was friendly. When we arrived in our room couch bed did not have linens on it.The breakfast was not well laid out but did offer us a choice of sausage or kolchies. Overall it was an average stay for a flag which I have come to expect much more from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r144635290-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144635290</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a very good area</t>
+  </si>
+  <si>
+    <t>This hotel does not let you become unhappy. Breakfast is sufficient and rooms are spacious. Mine had a big flatscreen, a small kitchen and a nice size fridge. The hotel is close to the galleria mall and nice bars. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r133132436-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133132436</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>OK but needs to be renovated</t>
+  </si>
+  <si>
+    <t>Stayed here for a single night recently while visiting Houston museums.  I routinely stay at Comfort Suites and usually find them to be vey acceptable. However, although the Comfort Suites near the Galleria was OK, I'd definitely classify it as one of the poorer quality Comfort Suites I have stayed in. There were stains on the hall and room carpets, hallways were not air conditioned, paint was peeling from the base of a closet door in our room, the sheetrock on the ceiling of our bathroom was water damaged and cracked, there was a hole cut in the ceiling that the fire sprinkler stuck out of, and the hotel is in a bit of a sketchy area. On the plus side, rooms were comfortable and relatively quiet, a decent continental breakfast was included, and staff were friendly and efficient.  The property definitely needs to be renovated to bring it to Comfort Suites standards. Until it is, I will plan on staying elsewhere when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>racheltx671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for a single night recently while visiting Houston museums.  I routinely stay at Comfort Suites and usually find them to be vey acceptable. However, although the Comfort Suites near the Galleria was OK, I'd definitely classify it as one of the poorer quality Comfort Suites I have stayed in. There were stains on the hall and room carpets, hallways were not air conditioned, paint was peeling from the base of a closet door in our room, the sheetrock on the ceiling of our bathroom was water damaged and cracked, there was a hole cut in the ceiling that the fire sprinkler stuck out of, and the hotel is in a bit of a sketchy area. On the plus side, rooms were comfortable and relatively quiet, a decent continental breakfast was included, and staff were friendly and efficient.  The property definitely needs to be renovated to bring it to Comfort Suites standards. Until it is, I will plan on staying elsewhere when in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r132563529-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132563529</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>No Problems</t>
+  </si>
+  <si>
+    <t>Used to stay here under my Choice Hotels discount, but I now work for Hilton. I liked this place. The pool was pretty nice and peaceful to sit at. Security does their job, parking wasn't a disaster, staff was kind and gave me late checkouts since I was a frequent guest, rooms were clean, the interior/exterior was well-kept. Good management I would say. I remember getting free bottled water and Venus razors every time I stayed. That was nice/convenient. It was a close walk to Stereo Live, a concert venue that I frequently go to with friends. Made nothing but good memories here during the several times that I stayed!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Used to stay here under my Choice Hotels discount, but I now work for Hilton. I liked this place. The pool was pretty nice and peaceful to sit at. Security does their job, parking wasn't a disaster, staff was kind and gave me late checkouts since I was a frequent guest, rooms were clean, the interior/exterior was well-kept. Good management I would say. I remember getting free bottled water and Venus razors every time I stayed. That was nice/convenient. It was a close walk to Stereo Live, a concert venue that I frequently go to with friends. Made nothing but good memories here during the several times that I stayed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r132544435-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132544435</t>
+  </si>
+  <si>
+    <t>Ok, I guess...</t>
+  </si>
+  <si>
+    <t>The accomodations at this location were not at all what I am accustomed to when I stay at a CS.  The hotel and its furniture were outdated, the breakfast was disappointing, our room smelled and the carpeting was dirty.  Beds were comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>The accomodations at this location were not at all what I am accustomed to when I stay at a CS.  The hotel and its furniture were outdated, the breakfast was disappointing, our room smelled and the carpeting was dirty.  Beds were comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r121669653-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121669653</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Decent for the Price</t>
+  </si>
+  <si>
+    <t>Clean place, friendly staff. Very good free breakfast selections with eggs, sausage, biscuits, gravy, etc.  Average free manager's reception Monday thru Thursday with heavy snacks, soft drinks and wine (no beer!).  Surroundng area is not the greatest but not that bad either.  A few restaurants close by and a Thai restaurant right across the street that had great food!  Bed was average but the pillows need to go.  Lumpy and cheap.  On a budget or simply like a few extras for a good price?  Stay here no problem.  Would stay again for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>racheltx671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded January 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2012</t>
+  </si>
+  <si>
+    <t>Clean place, friendly staff. Very good free breakfast selections with eggs, sausage, biscuits, gravy, etc.  Average free manager's reception Monday thru Thursday with heavy snacks, soft drinks and wine (no beer!).  Surroundng area is not the greatest but not that bad either.  A few restaurants close by and a Thai restaurant right across the street that had great food!  Bed was average but the pillows need to go.  Lumpy and cheap.  On a budget or simply like a few extras for a good price?  Stay here no problem.  Would stay again for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r121517022-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121517022</t>
+  </si>
+  <si>
+    <t>12/08/2011</t>
+  </si>
+  <si>
+    <t>Clean Rooms, Convenient Location, Needs Owner On Site</t>
+  </si>
+  <si>
+    <t>We had 20,000 Choice Hotel expiring at the end of the year so decided to use them to avoid the need for a 1 1/2 hour drive after a concert near the hotel.  This was the fifth Choice hotel we have stayed in this year on points and was clearly the worst value for points, thus the 3 rating and not 4.
+The hotel was less than 5 minutes from the 59 interchange at Fountainview and this is a real convenience.  The bedding and furnishings were clean and fresh.  The doors to three rooms that we passed on our way to our room were open for maid service and all three as well as our room had very noticeable carpet stains that led to a poor first impression.  I have had great results on stains of this type using Woolite OxyDeep and said to my wife that I would bet that it would remove most if not all of the stains we saw.  The water faucet in the sink in the bathroom was very difficult to manage and needed care.  The paint job was not high quality.  I really believe that an onsite owner or motivated manager would be able to improve the overall impression of this hotel.
+The front desk staff were pleasant and efficient.  The complimentary breakfast was standard with biscuits and gravy, a waffle maker, breads, bagels, scrambled eggs and a choice of cereals as well as...We had 20,000 Choice Hotel expiring at the end of the year so decided to use them to avoid the need for a 1 1/2 hour drive after a concert near the hotel.  This was the fifth Choice hotel we have stayed in this year on points and was clearly the worst value for points, thus the 3 rating and not 4.The hotel was less than 5 minutes from the 59 interchange at Fountainview and this is a real convenience.  The bedding and furnishings were clean and fresh.  The doors to three rooms that we passed on our way to our room were open for maid service and all three as well as our room had very noticeable carpet stains that led to a poor first impression.  I have had great results on stains of this type using Woolite OxyDeep and said to my wife that I would bet that it would remove most if not all of the stains we saw.  The water faucet in the sink in the bathroom was very difficult to manage and needed care.  The paint job was not high quality.  I really believe that an onsite owner or motivated manager would be able to improve the overall impression of this hotel.The front desk staff were pleasant and efficient.  The complimentary breakfast was standard with biscuits and gravy, a waffle maker, breads, bagels, scrambled eggs and a choice of cereals as well as apples, bananas and yogurt.I would stay here again at the right price, but the abundance of Hot Wire and PriceLine deals in this area would probably result in my not choosing a reserved room here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had 20,000 Choice Hotel expiring at the end of the year so decided to use them to avoid the need for a 1 1/2 hour drive after a concert near the hotel.  This was the fifth Choice hotel we have stayed in this year on points and was clearly the worst value for points, thus the 3 rating and not 4.
+The hotel was less than 5 minutes from the 59 interchange at Fountainview and this is a real convenience.  The bedding and furnishings were clean and fresh.  The doors to three rooms that we passed on our way to our room were open for maid service and all three as well as our room had very noticeable carpet stains that led to a poor first impression.  I have had great results on stains of this type using Woolite OxyDeep and said to my wife that I would bet that it would remove most if not all of the stains we saw.  The water faucet in the sink in the bathroom was very difficult to manage and needed care.  The paint job was not high quality.  I really believe that an onsite owner or motivated manager would be able to improve the overall impression of this hotel.
+The front desk staff were pleasant and efficient.  The complimentary breakfast was standard with biscuits and gravy, a waffle maker, breads, bagels, scrambled eggs and a choice of cereals as well as...We had 20,000 Choice Hotel expiring at the end of the year so decided to use them to avoid the need for a 1 1/2 hour drive after a concert near the hotel.  This was the fifth Choice hotel we have stayed in this year on points and was clearly the worst value for points, thus the 3 rating and not 4.The hotel was less than 5 minutes from the 59 interchange at Fountainview and this is a real convenience.  The bedding and furnishings were clean and fresh.  The doors to three rooms that we passed on our way to our room were open for maid service and all three as well as our room had very noticeable carpet stains that led to a poor first impression.  I have had great results on stains of this type using Woolite OxyDeep and said to my wife that I would bet that it would remove most if not all of the stains we saw.  The water faucet in the sink in the bathroom was very difficult to manage and needed care.  The paint job was not high quality.  I really believe that an onsite owner or motivated manager would be able to improve the overall impression of this hotel.The front desk staff were pleasant and efficient.  The complimentary breakfast was standard with biscuits and gravy, a waffle maker, breads, bagels, scrambled eggs and a choice of cereals as well as apples, bananas and yogurt.I would stay here again at the right price, but the abundance of Hot Wire and PriceLine deals in this area would probably result in my not choosing a reserved room here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r121220660-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121220660</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>Undesireable</t>
+  </si>
+  <si>
+    <t>Look at my photos, they speak for themselves, it is just really run down. The managers reception is really chips and sodas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Look at my photos, they speak for themselves, it is just really run down. The managers reception is really chips and sodas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r119034222-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119034222</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Good Hotel in mixed neighbourhood</t>
+  </si>
+  <si>
+    <t>The hotel is about 15 minutes drive from Downtown Houston and therefore a very reasonable priced option for people who have business in Downtown Houston but do not want to spent a lot at Hilton, Intercontinental etc.. The hotel is very clean and the staff friendly. Breakfast Buffet is above average. The rooms have had some upgrades. The location is adjacent to some mixed neighbourhoods. There is a security guard on duty during the night hours. The hotel has a business center with desktop PCs and a b/w laserprinter.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r118803568-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118803568</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Not bad not good</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Neighbourhood is okay, most Hispanic and Asia. In less then 20 minutes you're in downtown area's (all three). It looks a bit cheap and old fashioned. It could be better maintained. But it's not that bed. The rooms are okay, with the amenities you need and clean. Nothing special about this hotel. I would not recommanded it to my clients, but at the end for one night sleep it's okay.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r117181223-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117181223</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>I stayed here one night before leaving. The neighborhood was a bit sketchy and the room was grungy. It was okay, but I would not stay here again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r90631582-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>90631582</t>
+  </si>
+  <si>
+    <t>12/24/2010</t>
+  </si>
+  <si>
+    <t>Pretty Good Quality Hotel.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights on a visit to Houston.  I picked it largely because the location was very close to one of the people we were visiting, as well as fairly centrally located vs. being on the outskirts of the city.  I have also stayed at several Comfort Suites, and they are usually decent enough.  90% of Houston is a ghetto, so picking something that is not in the suburbs that is halfway decent is difficult.
+I think I paid a tad over $300 for 3 days there after taxes, which wasn't too bad.  That's a bit higher than I like to pay, but overall I was satisfied.  
+Since it was on busy Richmond Ave. and in a very urban and arguably ghetto part of Houston, I was a bit worried about noise and crime.  Literally within walking distance a couple blocks away is some of the most crime ridden ghetto in all of Houston. Turned out we did not have any issues.  Our room was on the first floor with a window facing Richmond Ave., and surprisingly, it wasn't nearly as loud as I thought it would be.  In fact, with the A/C or fan turned on, you can't hear the street noise much at all.  With it off, you can only hear louder vehicles, but in general, the window was insulated pretty well from sound.
+There were signs all over the parking lot (in...I stayed at this hotel for 3 nights on a visit to Houston.  I picked it largely because the location was very close to one of the people we were visiting, as well as fairly centrally located vs. being on the outskirts of the city.  I have also stayed at several Comfort Suites, and they are usually decent enough.  90% of Houston is a ghetto, so picking something that is not in the suburbs that is halfway decent is difficult.I think I paid a tad over $300 for 3 days there after taxes, which wasn't too bad.  That's a bit higher than I like to pay, but overall I was satisfied.  Since it was on busy Richmond Ave. and in a very urban and arguably ghetto part of Houston, I was a bit worried about noise and crime.  Literally within walking distance a couple blocks away is some of the most crime ridden ghetto in all of Houston. Turned out we did not have any issues.  Our room was on the first floor with a window facing Richmond Ave., and surprisingly, it wasn't nearly as loud as I thought it would be.  In fact, with the A/C or fan turned on, you can't hear the street noise much at all.  With it off, you can only hear louder vehicles, but in general, the window was insulated pretty well from sound.There were signs all over the parking lot (in every other parking space) warning you to lock your doors and secure your valuables, and given the area, I was a bit worried about my car getting broken into.  Turned out I parked near the front lobby my entire stay, and there were no problems.  The parking lot was pretty well lit.  I would not park my car in the back though.  It would be too easy for someone to jump the fence and break into your car. The grounds were well kept and pretty, with lots of trees and bushes.  I especially liked the magnolia trees.The room was clean and pretty spacious, and on line with most Comfort Suites.  Internet connection was decent and fast enough.  Breakfast was good and well tended to.Staff were friendly, especially the maids and the girl at breakfast. The only thing that I don't like about this hotel is the tight location and the location on Richmond Ave. in general.  I never feel too good about staying in a hotel that is surrounded by ghetto, but they seem to keep the riff raff off the property somehow.  I would be a bit freaked out if I had a nice car, but I had a rental car that I didn't really care about.  I would stay there again under the right set of circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights on a visit to Houston.  I picked it largely because the location was very close to one of the people we were visiting, as well as fairly centrally located vs. being on the outskirts of the city.  I have also stayed at several Comfort Suites, and they are usually decent enough.  90% of Houston is a ghetto, so picking something that is not in the suburbs that is halfway decent is difficult.
+I think I paid a tad over $300 for 3 days there after taxes, which wasn't too bad.  That's a bit higher than I like to pay, but overall I was satisfied.  
+Since it was on busy Richmond Ave. and in a very urban and arguably ghetto part of Houston, I was a bit worried about noise and crime.  Literally within walking distance a couple blocks away is some of the most crime ridden ghetto in all of Houston. Turned out we did not have any issues.  Our room was on the first floor with a window facing Richmond Ave., and surprisingly, it wasn't nearly as loud as I thought it would be.  In fact, with the A/C or fan turned on, you can't hear the street noise much at all.  With it off, you can only hear louder vehicles, but in general, the window was insulated pretty well from sound.
+There were signs all over the parking lot (in...I stayed at this hotel for 3 nights on a visit to Houston.  I picked it largely because the location was very close to one of the people we were visiting, as well as fairly centrally located vs. being on the outskirts of the city.  I have also stayed at several Comfort Suites, and they are usually decent enough.  90% of Houston is a ghetto, so picking something that is not in the suburbs that is halfway decent is difficult.I think I paid a tad over $300 for 3 days there after taxes, which wasn't too bad.  That's a bit higher than I like to pay, but overall I was satisfied.  Since it was on busy Richmond Ave. and in a very urban and arguably ghetto part of Houston, I was a bit worried about noise and crime.  Literally within walking distance a couple blocks away is some of the most crime ridden ghetto in all of Houston. Turned out we did not have any issues.  Our room was on the first floor with a window facing Richmond Ave., and surprisingly, it wasn't nearly as loud as I thought it would be.  In fact, with the A/C or fan turned on, you can't hear the street noise much at all.  With it off, you can only hear louder vehicles, but in general, the window was insulated pretty well from sound.There were signs all over the parking lot (in every other parking space) warning you to lock your doors and secure your valuables, and given the area, I was a bit worried about my car getting broken into.  Turned out I parked near the front lobby my entire stay, and there were no problems.  The parking lot was pretty well lit.  I would not park my car in the back though.  It would be too easy for someone to jump the fence and break into your car. The grounds were well kept and pretty, with lots of trees and bushes.  I especially liked the magnolia trees.The room was clean and pretty spacious, and on line with most Comfort Suites.  Internet connection was decent and fast enough.  Breakfast was good and well tended to.Staff were friendly, especially the maids and the girl at breakfast. The only thing that I don't like about this hotel is the tight location and the location on Richmond Ave. in general.  I never feel too good about staying in a hotel that is surrounded by ghetto, but they seem to keep the riff raff off the property somehow.  I would be a bit freaked out if I had a nice car, but I had a rental car that I didn't really care about.  I would stay there again under the right set of circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r82843222-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>82843222</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel for the price.</t>
+  </si>
+  <si>
+    <t>The front desk personnel were friendly, helpful and knowledgeable. Check-in and out were quick and easy. The room had two double beds, was large, clean and well lit. The bed was comfortable and clean. Plenty of pillows and hot water. The bathroom was spotless. Breakfast one morning was scrambled eggs, sausage, waffles, cereals, a variety of pastries and drinks. The next had a ham and egg fritatta. Food was fresh and very good. Seating area small but adequate. In room free WiFi worked well. No connection issues. Did not use gym. Vending machines in hall had a wide selection of moderately priced drinks and snacks.Would highly recommend it. Great value for the price. Clean, well lit, good service, with comfortable, clean beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>The front desk personnel were friendly, helpful and knowledgeable. Check-in and out were quick and easy. The room had two double beds, was large, clean and well lit. The bed was comfortable and clean. Plenty of pillows and hot water. The bathroom was spotless. Breakfast one morning was scrambled eggs, sausage, waffles, cereals, a variety of pastries and drinks. The next had a ham and egg fritatta. Food was fresh and very good. Seating area small but adequate. In room free WiFi worked well. No connection issues. Did not use gym. Vending machines in hall had a wide selection of moderately priced drinks and snacks.Would highly recommend it. Great value for the price. Clean, well lit, good service, with comfortable, clean beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r76543203-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>76543203</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Excellent customer service, the shuttle was so convenient getting back from the company I was visiting everyday. Very clean and spacious rooms. Love the waffles and the variety in Breakfast. Everyday was something different. All the people that work here are very nice and helpful.  I highly recommend it and will definately stay here again.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r44698221-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>44698221</t>
+  </si>
+  <si>
+    <t>09/26/2009</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE!</t>
+  </si>
+  <si>
+    <t>We stayed onlyone night at this hotel but were very pleased with the service - we were traveling through from MA and the hospitality was superior! Tami was great - she recommended a wonderful restaurant during our stay. They were even more accomadating when I had left my wallet behind and needed it FED EX'ed to me since I had already driven 400 miles away from the location. Thanks again Rachel and Tami!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r24399443-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24399443</t>
+  </si>
+  <si>
+    <t>02/09/2009</t>
+  </si>
+  <si>
+    <t>Alright, but nothing special...</t>
+  </si>
+  <si>
+    <t>This was my company's first trip to Houston, so there has to be a bit of a learning curve... We choose it due to it's location - mid-way between down-town and the energy corridor etc. however on the location - if you like to visit the seedier venues, it maybe for you. The next time we go, it'll probably be closer to the town. The hotel itself was friendly enough, clean, OK breakfast, free internet access and in general generous sized rooms. The fact it didn't have a bar was a bit of let-down - it would have been good to unwind last thing in the evening.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r21728783-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21728783</t>
+  </si>
+  <si>
+    <t>11/11/2008</t>
+  </si>
+  <si>
+    <t>many shortcomings</t>
+  </si>
+  <si>
+    <t>1- Air conditioner in room was so loud it kept waking us up.  Can't do without it though, the room was quite hot.2-Wireless internet in the room is nice...when it works properly.  Never had such a hard time opening emails.  Tried all their available connections at different times of day, to no avail, slow and splotchy.  receptionist was no help, shrugged problem off.3- bathroom is nondescript, so is the room decor but clean.  Room only  had decaf tea, and the coffee maker was missing a part, rendering it unusable.  No sheets ready or stored in the room for sleeper sofa for my child. 4- lobby, breakfast area ok, forgetable.5- overall, not worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>1- Air conditioner in room was so loud it kept waking us up.  Can't do without it though, the room was quite hot.2-Wireless internet in the room is nice...when it works properly.  Never had such a hard time opening emails.  Tried all their available connections at different times of day, to no avail, slow and splotchy.  receptionist was no help, shrugged problem off.3- bathroom is nondescript, so is the room decor but clean.  Room only  had decaf tea, and the coffee maker was missing a part, rendering it unusable.  No sheets ready or stored in the room for sleeper sofa for my child. 4- lobby, breakfast area ok, forgetable.5- overall, not worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r8254197-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8254197</t>
+  </si>
+  <si>
+    <t>07/28/2007</t>
+  </si>
+  <si>
+    <t>A nice hotel</t>
+  </si>
+  <si>
+    <t>We thought it was excellent value for the money ($85 / nite) for a room with 2 queen beds and a rollaway.   This happened to be a weekend special;  the actual rate may be a little higher.   Unlike the previous reviewers, we do not have anything negative to say about the room.  It was quite comfortable.  The continental breakfast was certainly above average:  aside from the normal pastries and cereals, there was also sausage and boiled egg.  We would definitely be happy to stay here again.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r4003832-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4003832</t>
+  </si>
+  <si>
+    <t>10/08/2005</t>
+  </si>
+  <si>
+    <t>Only stay here if you're desperate</t>
+  </si>
+  <si>
+    <t>I must say, we have stayed at this hotel a few times, due to the close proximity to some clubs we like to frequent, however I can tell you all about its shortcomings. First of all,  I agree with the previous review, it is a dirty seedy type of room. The hallways and elevators have NO AIR-CONDITIONING! None! It is extremely HOT in the lobby and halls. Also, the bathrooms in the rooms have no air conditioning, so it is hard to get ready to go out in them. The air in the room works well, thankfully. One night we awoke in the middle of the night and it was extremely hot in the room. Turns out there had been a car wreck down the street that had downed the powerlines and knocked out all power! Well, we had to leave, the heat was unbearable.The next day I called the manager to see if we could receive some type of credit for having to leave at 4 am, and she said she was sorry that no credit or refund was due. I realize that it was not their fault, however I have been at that hotel when the power had gone out before for a shorter period of time and it was still light out, and a cooler time of year.So Imust say that if you have a choice, pick another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I must say, we have stayed at this hotel a few times, due to the close proximity to some clubs we like to frequent, however I can tell you all about its shortcomings. First of all,  I agree with the previous review, it is a dirty seedy type of room. The hallways and elevators have NO AIR-CONDITIONING! None! It is extremely HOT in the lobby and halls. Also, the bathrooms in the rooms have no air conditioning, so it is hard to get ready to go out in them. The air in the room works well, thankfully. One night we awoke in the middle of the night and it was extremely hot in the room. Turns out there had been a car wreck down the street that had downed the powerlines and knocked out all power! Well, we had to leave, the heat was unbearable.The next day I called the manager to see if we could receive some type of credit for having to leave at 4 am, and she said she was sorry that no credit or refund was due. I realize that it was not their fault, however I have been at that hotel when the power had gone out before for a shorter period of time and it was still light out, and a cooler time of year.So Imust say that if you have a choice, pick another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r1726147-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1726147</t>
+  </si>
+  <si>
+    <t>03/14/2004</t>
+  </si>
+  <si>
+    <t>Okay - but would not stay again</t>
+  </si>
+  <si>
+    <t>Stayed one night at the Comfort Suites on March 8, 2004. Hotel is beautiful from exterior, what with flowers and fountains. Is conveniently located within walking distance to several great restaurants, in fact, Joe's Crab Shack is directly across the street. The interior of the hotel at quick glance is decent. Room was slightly on the "seedy" side, however. Toilet ran non-stop all night and the room had a dim, dirty feeling' although I can't tell you it was truly dirty. My room was on the first floor near the rear entry which normally needs your room key swiped in order to be opened. The lock was broken and the door didn't even latch so anyone had total access. Awoke around 2:00 am to very loud noise outside room. Alot of laughing and conversation. Then, before 6:00 am I could hear all the laughter and conversation of the crew setting up the continental breakfast. If you stay here, be sure to get a room on the 2nd floor or higher. The walls are all paper thin as is, but being on the first floor near the lobby, breakfast area, exercise room, pool and entry door is totally unacceptable. This was probably the worst nights sleep I've ever had at any hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night at the Comfort Suites on March 8, 2004. Hotel is beautiful from exterior, what with flowers and fountains. Is conveniently located within walking distance to several great restaurants, in fact, Joe's Crab Shack is directly across the street. The interior of the hotel at quick glance is decent. Room was slightly on the "seedy" side, however. Toilet ran non-stop all night and the room had a dim, dirty feeling' although I can't tell you it was truly dirty. My room was on the first floor near the rear entry which normally needs your room key swiped in order to be opened. The lock was broken and the door didn't even latch so anyone had total access. Awoke around 2:00 am to very loud noise outside room. Alot of laughing and conversation. Then, before 6:00 am I could hear all the laughter and conversation of the crew setting up the continental breakfast. If you stay here, be sure to get a room on the 2nd floor or higher. The walls are all paper thin as is, but being on the first floor near the lobby, breakfast area, exercise room, pool and entry door is totally unacceptable. This was probably the worst nights sleep I've ever had at any hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1642,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1674,3398 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>121</v>
+      </c>
+      <c r="X18" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>121</v>
+      </c>
+      <c r="X19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>121</v>
+      </c>
+      <c r="X20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>121</v>
+      </c>
+      <c r="X21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>121</v>
+      </c>
+      <c r="X22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>121</v>
+      </c>
+      <c r="X23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>121</v>
+      </c>
+      <c r="X24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>121</v>
+      </c>
+      <c r="X25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>121</v>
+      </c>
+      <c r="X26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>298</v>
+      </c>
+      <c r="X36" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>298</v>
+      </c>
+      <c r="X37" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>312</v>
+      </c>
+      <c r="X39" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>312</v>
+      </c>
+      <c r="X40" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>352</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>353</v>
+      </c>
+      <c r="J45" t="s">
+        <v>354</v>
+      </c>
+      <c r="K45" t="s">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s">
+        <v>356</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>357</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>366</v>
+      </c>
+      <c r="J47" t="s">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>370</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>371</v>
+      </c>
+      <c r="J48" t="s">
+        <v>372</v>
+      </c>
+      <c r="K48" t="s">
+        <v>373</v>
+      </c>
+      <c r="L48" t="s">
+        <v>374</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>375</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>376</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>377</v>
+      </c>
+      <c r="J49" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" t="s">
+        <v>379</v>
+      </c>
+      <c r="L49" t="s">
+        <v>380</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>381</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="s">
+        <v>391</v>
+      </c>
+      <c r="K51" t="s">
+        <v>392</v>
+      </c>
+      <c r="L51" t="s">
+        <v>393</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_121.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_121.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r605059304-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107859</t>
+  </si>
+  <si>
+    <t>605059304</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Can't recommend</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 1 night at this property.  Check in was slow and it was difficult communicating with the desk clerk.  (English was not his first language.)  We often stay at Comfort Suites when traveling and found that this hotel was not up to par.  The lobby was small and the breakfast area only had 6 tables.  Our third floor room had two double bed,was clean and had adequate space.  The lighting in the room and bathroom was very dim. The beds were too hard for our tastes and were not the same quality that we find at other Comfort Suites.  The morning staff was very friendly.  Breakfast was typical - eggs/sausage and cereal, toast. There is a small workout room and pool that we did not use.It is a short, easy drive to the Galleria, restaurants and I610. We would consider staying here again because of the location and the price.  In spite of not meeting our espectations, it is a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 1 night at this property.  Check in was slow and it was difficult communicating with the desk clerk.  (English was not his first language.)  We often stay at Comfort Suites when traveling and found that this hotel was not up to par.  The lobby was small and the breakfast area only had 6 tables.  Our third floor room had two double bed,was clean and had adequate space.  The lighting in the room and bathroom was very dim. The beds were too hard for our tastes and were not the same quality that we find at other Comfort Suites.  The morning staff was very friendly.  Breakfast was typical - eggs/sausage and cereal, toast. There is a small workout room and pool that we did not use.It is a short, easy drive to the Galleria, restaurants and I610. We would consider staying here again because of the location and the price.  In spite of not meeting our espectations, it is a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r595700831-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595700831</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Last Minute Business Trip</t>
+  </si>
+  <si>
+    <t>My room was very clean and stocked well. We were out handling business all day and once we got to the room, we were extremely hungry. The Front desk agent recommended a local spot called beaux coo that was really good. Shoutout to Jackie &amp; Barbara at the front desk. Extremely friendly and very accommodating. I am definitely staying there again next time.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r592439321-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592439321</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Best stay ever</t>
+  </si>
+  <si>
+    <t>I took a short trip to Houston just to get away for the weekend, and I was not familiar with area. But there were 2 awesome ladies Ms Jackie and Ms Barbara recommend some great places. They were so helpful and kind. Both ladies took the time out to make sure our stay was awesome. Word can not explain how I appreciate both of them. I wish I could give them a 100 stars each. Keep up the good work because of employees like both of you make patrons like me continue to visit the hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r591798518-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107859</t>
-  </si>
-  <si>
     <t>591798518</t>
   </si>
   <si>
@@ -177,9 +240,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This is a wonderful place to stay! The whole place is meticulously clean. The outdoor pool/spa area is inviting - even towels rolled up neatly on the shelves poolside each morning for the guests. The hot items on the breakfast buffet vary each day - which is so appreciated when you’re staying for 5 days. The food is fresh and promptly re-filled by a diligent host who does this 7 days a week...which brings me to the staff. The staff at this hotel are truly exceptional. I was welcomed at check-in by Riaz, who made sure that the parking arrangements in the back lot for my motor coach were adequate. When the breakfast seating area filled up the next morning, they immediately set up additional tables to accommodate the overflow. Jackie &amp; Barbara make the guests feel like we are part of their family. These folks became ‘family’ in the aftermath of the hurricane. They consider guests as ‘family’ and accommodate them accordingly. Kudos, Brandi! More</t>
   </si>
   <si>
@@ -216,12 +276,42 @@
     <t>We were here for two nights, friendly front desk and staff, hotel is pretty clean, rooms are large, and the beds are comfy.  Was quiet and the free parking is ample.  Good standard breakfast with hot items. For the price and the location this was a good place for us.  Easy access by car to South Houston and freeways.  The Galleria Mall is nearby.  The area around the hotel is ok, but somewhat isolated although there are a few restaurants and bars within a 5 minute walking distance.   It still has a pool/hot tub around the side, but was closed when we were there in June 2018.Depending on the price, I would stay here again as it was easy, quiet, and clean.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We were here for two nights, friendly front desk and staff, hotel is pretty clean, rooms are large, and the beds are comfy.  Was quiet and the free parking is ample.  Good standard breakfast with hot items. For the price and the location this was a good place for us.  Easy access by car to South Houston and freeways.  The Galleria Mall is nearby.  The area around the hotel is ok, but somewhat isolated although there are a few restaurants and bars within a 5 minute walking distance.   It still has a pool/hot tub around the side, but was closed when we were there in June 2018.Depending on the price, I would stay here again as it was easy, quiet, and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r579618244-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579618244</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Older hotel - no pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite being advertised as having a pool, this hotel’s pool appears to have been drained and demolished ages ago, with no future renovation in sight. That was disappointing to discover at check in after a long day of working outside in the heat. This hotel is older and definitely in need of renovations overall. The staff is nice. The WiFi worked. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r578396132-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578396132</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Good location and helpful staff</t>
+  </si>
+  <si>
+    <t>Convenient  location near Galleria Mall. Nice staff. However, WI FI is not stable. The log in in WI FI was not stable.A lot of free parking available. Breakfast not excellent but fair considering room rates.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r552021600-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,6 +393,53 @@
     <t>we stayed 5 nights. The breakfast was great. There was waffles, toast, english muffins, muffins, bagels, fruits, oatmeal, cereals, HOT ITEMS from sausage, egg, made english muffin with egg and sausage, chopped sausage with onion tomato and jalepeno. the hot items changed every morning.  the rooms were comfortable. Jackie at the front desk was a great. The housekeeping ladies and breakfast lady were nice. The  pool is nice. The wifi is good. The tv on the other hand, i wish there was more channels available. I do not think you can beat the price with what you get here anywhere else. All of us were happy (3,8,30, 30 yr old) There were never any suspicious people around. I felt safe.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r488054088-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488054088</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Superb service, above-average amenities</t>
+  </si>
+  <si>
+    <t>We stayed two nights while doing business in the area. As others have noted, the neighborhood is working class, at best, but I never felt unsafe. The notice to remove all valuables from cars parked in the lot is the standard one found on every parking lot ticket. 
+Lobby and breakfast area were extremely clean and tidy. Breakfast included hot food -- eggs, breakfast meats and make-it-yourself waffles -- and the usual cold foods, such as yogurt, boiled eggs, breads, and cereals. Also juice, coffee and milk. 
+The rooms are all suites, with a half-wall separating the sofa area from the beds. As is usual, the television is in front of the beds, not the sofa, which is awkward. However, there is a coffee table and an end table with lamp, so it makes a nice reading nook. There's a small table with two chairs for eating, as well as a kitchenette-style counter area with microwave and mini-fridge, as well as coffee maker, ice bucket, and plastic cups as well as paper coffee cups. We found a set of paper plates, napkins and plasticware in a ziplock bag in the drawer, which was a nice touch.
+Lots of outlets for recharging electronics. Beds were very comfortable, with nice quality of linens. Towels were very soft. Decent quality toiletries. The bathroom could use another towel rack, but couldn't they all? 
+Fitness center includes one each of treadmill, elliptical, bike and weight...We stayed two nights while doing business in the area. As others have noted, the neighborhood is working class, at best, but I never felt unsafe. The notice to remove all valuables from cars parked in the lot is the standard one found on every parking lot ticket. Lobby and breakfast area were extremely clean and tidy. Breakfast included hot food -- eggs, breakfast meats and make-it-yourself waffles -- and the usual cold foods, such as yogurt, boiled eggs, breads, and cereals. Also juice, coffee and milk. The rooms are all suites, with a half-wall separating the sofa area from the beds. As is usual, the television is in front of the beds, not the sofa, which is awkward. However, there is a coffee table and an end table with lamp, so it makes a nice reading nook. There's a small table with two chairs for eating, as well as a kitchenette-style counter area with microwave and mini-fridge, as well as coffee maker, ice bucket, and plastic cups as well as paper coffee cups. We found a set of paper plates, napkins and plasticware in a ziplock bag in the drawer, which was a nice touch.Lots of outlets for recharging electronics. Beds were very comfortable, with nice quality of linens. Towels were very soft. Decent quality toiletries. The bathroom could use another towel rack, but couldn't they all? Fitness center includes one each of treadmill, elliptical, bike and weight machine, plus free weights. The a/c was broken, which made it less than ideal.The only other negative was the hot tub and pool, which both need a good cleaning, the hot tub especially.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We stayed two nights while doing business in the area. As others have noted, the neighborhood is working class, at best, but I never felt unsafe. The notice to remove all valuables from cars parked in the lot is the standard one found on every parking lot ticket. 
+Lobby and breakfast area were extremely clean and tidy. Breakfast included hot food -- eggs, breakfast meats and make-it-yourself waffles -- and the usual cold foods, such as yogurt, boiled eggs, breads, and cereals. Also juice, coffee and milk. 
+The rooms are all suites, with a half-wall separating the sofa area from the beds. As is usual, the television is in front of the beds, not the sofa, which is awkward. However, there is a coffee table and an end table with lamp, so it makes a nice reading nook. There's a small table with two chairs for eating, as well as a kitchenette-style counter area with microwave and mini-fridge, as well as coffee maker, ice bucket, and plastic cups as well as paper coffee cups. We found a set of paper plates, napkins and plasticware in a ziplock bag in the drawer, which was a nice touch.
+Lots of outlets for recharging electronics. Beds were very comfortable, with nice quality of linens. Towels were very soft. Decent quality toiletries. The bathroom could use another towel rack, but couldn't they all? 
+Fitness center includes one each of treadmill, elliptical, bike and weight...We stayed two nights while doing business in the area. As others have noted, the neighborhood is working class, at best, but I never felt unsafe. The notice to remove all valuables from cars parked in the lot is the standard one found on every parking lot ticket. Lobby and breakfast area were extremely clean and tidy. Breakfast included hot food -- eggs, breakfast meats and make-it-yourself waffles -- and the usual cold foods, such as yogurt, boiled eggs, breads, and cereals. Also juice, coffee and milk. The rooms are all suites, with a half-wall separating the sofa area from the beds. As is usual, the television is in front of the beds, not the sofa, which is awkward. However, there is a coffee table and an end table with lamp, so it makes a nice reading nook. There's a small table with two chairs for eating, as well as a kitchenette-style counter area with microwave and mini-fridge, as well as coffee maker, ice bucket, and plastic cups as well as paper coffee cups. We found a set of paper plates, napkins and plasticware in a ziplock bag in the drawer, which was a nice touch.Lots of outlets for recharging electronics. Beds were very comfortable, with nice quality of linens. Towels were very soft. Decent quality toiletries. The bathroom could use another towel rack, but couldn't they all? Fitness center includes one each of treadmill, elliptical, bike and weight machine, plus free weights. The a/c was broken, which made it less than ideal.The only other negative was the hot tub and pool, which both need a good cleaning, the hot tub especially.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r485356582-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485356582</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Jackie is amazing, call ahead on your reservation</t>
+  </si>
+  <si>
+    <t>We were in Houston for two nights attending our son's graduation at Rice University. We had booked an employee rate for two rooms, (1-King and 1-Double Queen).Upon arrival we were told they had that our double queen was unavailable since the GM decided to give it to someone else.As an employee of Choice Hotels I totally understand the whole communication from one employee to another.  A simple call or email explaining to us of what they were doing should have been warranted.If it wasn't for Jackie, I probably would have contacted Guest Relations. We were still paying guests but obviously the GM that other wise. My hat goes off to Jackie as she is a great asset to this hotel. Maybe she can teach the other team members about great customer service....THANK YOU JACKIE FOR MAKING OUR STAY A GREAT ONE.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Houston for two nights attending our son's graduation at Rice University. We had booked an employee rate for two rooms, (1-King and 1-Double Queen).Upon arrival we were told they had that our double queen was unavailable since the GM decided to give it to someone else.As an employee of Choice Hotels I totally understand the whole communication from one employee to another.  A simple call or email explaining to us of what they were doing should have been warranted.If it wasn't for Jackie, I probably would have contacted Guest Relations. We were still paying guests but obviously the GM that other wise. My hat goes off to Jackie as she is a great asset to this hotel. Maybe she can teach the other team members about great customer service....THANK YOU JACKIE FOR MAKING OUR STAY A GREAT ONE.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r484055804-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,9 +455,6 @@
     <t>We stayed at this hotel for its location and found it to be very clean and well kept. The staff is very eager to help. However, the room 103 that we stayed in had an odor . At first we thought the carpet was just cleaned but the odor lingered for our three days' stay. The shower faucet was leaky and the water pressure was low. He tried to fix it and tried for couple hours and could not fix it. Note to myself, if you walk in the room and it does not smell right, ask to switch right away. We do love the hot breakfast that was different for all three days. She kept the food well stocked and kept the breakfast area clean. This location has a nice out door swimming pool and chair lift for handicapped. The fitness room is small but the equipments are fairly new.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>We stayed at this hotel for its location and found it to be very clean and well kept. The staff is very eager to help. However, the room 103 that we stayed in had an odor . At first we thought the carpet was just cleaned but the odor lingered for our three days' stay. The shower faucet was leaky and the water pressure was low. He tried to fix it and tried for couple hours and could not fix it. Note to myself, if you walk in the room and it does not smell right, ask to switch right away. We do love the hot breakfast that was different for all three days. She kept the food well stocked and kept the breakfast area clean. This location has a nice out door swimming pool and chair lift for handicapped. The fitness room is small but the equipments are fairly new.More</t>
   </si>
   <si>
@@ -363,6 +497,51 @@
     <t>We stayed at this hotel for one week and the experience was very good. Nice staff and very friendly. It comes with breakfast also. There is a small gym and laundry room. There is a outdoor pool and jacuzzi. I recommend this hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r467653553-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467653553</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>surprisingly fantastic</t>
+  </si>
+  <si>
+    <t>Unfortunate circumstances brought myself and my family to this location (funeral), but they were accommodating and very helpful at this stressed out time.  Jackie G. was at the front desk, and she made sure we all had everything we needed, complete with condolences and a warm smile.  She was fantastic!  It seems as if the words 'customer service' get lost on some at times, but our stay at the CS was one of the best we've had in recent history.  Thank you for your help and we will be back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Unfortunate circumstances brought myself and my family to this location (funeral), but they were accommodating and very helpful at this stressed out time.  Jackie G. was at the front desk, and she made sure we all had everything we needed, complete with condolences and a warm smile.  She was fantastic!  It seems as if the words 'customer service' get lost on some at times, but our stay at the CS was one of the best we've had in recent history.  Thank you for your help and we will be back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r463727177-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463727177</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>For price and convenience to Westhiemer area on limited budget. Best.</t>
+  </si>
+  <si>
+    <t>While this motel is not upscale neither is the price. It is clean, sufficient, good breakfast and the staff is way above normal Customer Service. Jackie, at front desk, is the one to deal with. She knows what you need before you do. Best Motel CS staff I have ever encountered and I travel a lot!! Park up front for security reasons -but- you have security issues all over the world now. Nothing to be afraid of, just be careful. I generally require 3 stars or above. I took a risk on previous reviews of this motel and it worked. If you have over $200 a nite for motels, go elsewhere. If not and you need a room for 2  or more nights, stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allyson R, Director of Sales at Comfort Suites - Near the Galleria, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>While this motel is not upscale neither is the price. It is clean, sufficient, good breakfast and the staff is way above normal Customer Service. Jackie, at front desk, is the one to deal with. She knows what you need before you do. Best Motel CS staff I have ever encountered and I travel a lot!! Park up front for security reasons -but- you have security issues all over the world now. Nothing to be afraid of, just be careful. I generally require 3 stars or above. I took a risk on previous reviews of this motel and it worked. If you have over $200 a nite for motels, go elsewhere. If not and you need a room for 2  or more nights, stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r459012985-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -376,15 +555,6 @@
   </si>
   <si>
     <t>Cons:1. Couch in hotel suite room was flat and uncomfortable. 2. There were signs all over the parking lot saying "Lock All Cars,Take All Belongings Out" ... indicating this hotel property is vulnerable to car burglars. 3. The water pressure in the shower was weak.Pros:1. Good location, literally about 8-10 mins. from the Galleria Mall and other cool stores/restaurants/strip malls all around the area.2. Hotel staff was courteous and friendly. The hotel receptionist was from Brazil, and she made me feel very welcomed.3. Room was nice, large size (but not really a "suite" since there was no actual separation between the beds and couch/living area. 4. TV had free cable.5. The best part was the mini-hotel breakfast in the mornings (I included pics for everyone to see). The eggs, sausage, pastries tasted great. Had a variety of cereal, oatmeal, juice choices, etc.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>Allyson R, Director of Sales at Comfort Suites - Near the Galleria, responded to this reviewResponded June 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 28, 2017</t>
   </si>
   <si>
     <t>Cons:1. Couch in hotel suite room was flat and uncomfortable. 2. There were signs all over the parking lot saying "Lock All Cars,Take All Belongings Out" ... indicating this hotel property is vulnerable to car burglars. 3. The water pressure in the shower was weak.Pros:1. Good location, literally about 8-10 mins. from the Galleria Mall and other cool stores/restaurants/strip malls all around the area.2. Hotel staff was courteous and friendly. The hotel receptionist was from Brazil, and she made me feel very welcomed.3. Room was nice, large size (but not really a "suite" since there was no actual separation between the beds and couch/living area. 4. TV had free cable.5. The best part was the mini-hotel breakfast in the mornings (I included pics for everyone to see). The eggs, sausage, pastries tasted great. Had a variety of cereal, oatmeal, juice choices, etc.More</t>
@@ -438,6 +608,48 @@
 As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely...Fantastic hotel with great service, spacious well equipped rooms, airy &amp; comfortable lobby, delicious breakfast, beautiful pool area &amp; very quiet. Girls at the reception desk, Renata &amp; Jacqui were extremely accommodating &amp; helpful. Our room was quiet &amp; had a lovely pool view. Very comfy beds &amp; bathroom had everything you might need including makeup wipes!! Plus top quality coffee for the coffee machine, disposable cups, glasses, plates &amp; cutlery in our roomGuest Laundry, ice makers &amp; a tiny but well equipped store were some of the other extras this hotel offers. One of the nights we stayed we were too tired to go out so we were able to purchase &amp; cook a meal in the microwave in our room. Iced water &amp; cookies in reception area...the list goes on. A free shuttle to the Galleria too that also dropped us the the Water Wall Park nearby - a must see! We had no problem getting to Downtown &amp; the Museum District by using Uber &amp; had we preferred to use public transport at less than $2 to go anywhere, the stop was only  few mins walk away. As a final nice touch, our flight didn't depart till late in the day &amp; we were kindly given a later checkout by the Manager which made our last day perfect to see the last few things on our Houston 'bucket list'. A great place to stay, would definitely stay again if we ever get back to Houston. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r411673160-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411673160</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Chek you bill for over charges</t>
+  </si>
+  <si>
+    <t>We stay when my daughter was at M d Anderson . Not sure she would live . 2 rooms  2 nights . After we left we were charged for 1 more night . I called several times . I  ask Choice Hotels for help . The manager called me right away and promised he would return my 128.26 ,. So he cbarged  me for 2 more nights . Then gave me credit for 2 nights . I'm still out 128.26 .  I won't be staying here again .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stay when my daughter was at M d Anderson . Not sure she would live . 2 rooms  2 nights . After we left we were charged for 1 more night . I called several times . I  ask Choice Hotels for help . The manager called me right away and promised he would return my 128.26 ,. So he cbarged  me for 2 more nights . Then gave me credit for 2 nights . I'm still out 128.26 .  I won't be staying here again .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r409736988-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409736988</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Cracking hotel</t>
+  </si>
+  <si>
+    <t>We stayed here in August 2016. This is one of the biggest hotel rooms we have ever stayed in. Fridge, microwave, table and chairs and 2 huge beds. Free breakfast and superb pool. One of the cleanest places we've ever stayed in. Brilliant hotel.  Handy for all in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We stayed here in August 2016. This is one of the biggest hotel rooms we have ever stayed in. Fridge, microwave, table and chairs and 2 huge beds. Free breakfast and superb pool. One of the cleanest places we've ever stayed in. Brilliant hotel.  Handy for all in Houston. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r403787647-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,9 +665,6 @@
     <t>A hotel that accommodates its guest like the Comfort Suites did will definitely get our business again. The room was spacious, the beds just the way we like them, the front desk so helpful and pleasant, breakfast has a wide range of offerings - we recommend this hotel as it had been recommended to us and our friends were right! All around excellent for the price range and location.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>A hotel that accommodates its guest like the Comfort Suites did will definitely get our business again. The room was spacious, the beds just the way we like them, the front desk so helpful and pleasant, breakfast has a wide range of offerings - we recommend this hotel as it had been recommended to us and our friends were right! All around excellent for the price range and location.More</t>
   </si>
   <si>
@@ -474,9 +683,6 @@
     <t>Near Galleria is the best selling point.  Back lot parking is plentiful but would be scary for a single female traveler arriving at night.  Very good breakfast lots to choose from and plentiful and stocked constantly.Room was adequate and comfortable.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Near Galleria is the best selling point.  Back lot parking is plentiful but would be scary for a single female traveler arriving at night.  Very good breakfast lots to choose from and plentiful and stocked constantly.Room was adequate and comfortable.More</t>
   </si>
   <si>
@@ -501,6 +707,50 @@
     <t>A friend recommended this hotel, because I had to be in Houston for an emergency hearing and my normal hotel was booked.I was pleasantly surprised. The hotel is relatively inexpensive, located in a decent area. The rooms are clean and very large. This hotel is not a luxury hotel, but it is amazing and excellent for quick business trips.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r373704158-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373704158</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. </t>
+  </si>
+  <si>
+    <t>I will definitely come back. Very comfortable. Everything was great. The staff was amazing. The front desk staff was very helpful , very cheerful and vey welcoming. I'm happy I chose this hotel for my stay and I will not hesitate to return. The hotel itself is great but combined with that amazing staff makes a winning combo for me.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I will definitely come back. Very comfortable. Everything was great. The staff was amazing. The front desk staff was very helpful , very cheerful and vey welcoming. I'm happy I chose this hotel for my stay and I will not hesitate to return. The hotel itself is great but combined with that amazing staff makes a winning combo for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r363917053-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363917053</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience, car got vandalized</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last Sunday night.  I arrived around 10:30pm and parked on the back since my room was the last one on the back.  The parking lot needs a lot more lighting.  The hallway had a musty odor, all is carpeted.  We could not find the elevator but since it is only a two story building and we were tired, we just went up the stairs right into our room.  The room is spacious and even had a couch, microwave, and small fridge.  There were plenty of towels in the bathroom as well.  The A/C made a ton of noise and took me about 45 minutes to fall asleep.  I am a heavy sleeper so once I fell asleep I was fine.  However, if your not a heavy sleeper I can see how you would have a hard time sleeping because it is very loud.  The bed was comfortable but the pillows were not.  I woke up with a sore neck and my partner did too.  
+Finally, when we left and got to our car, we saw that someone busted the passenger side window of my car.  There are of course no cameras and the hotel took no liability what so ever.  They handed me the Houston's police department's phone number and send me my way.  Maybe I am biased on my review because of the busted window.  But I'm not a hard person to please.  But...I stayed at this hotel last Sunday night.  I arrived around 10:30pm and parked on the back since my room was the last one on the back.  The parking lot needs a lot more lighting.  The hallway had a musty odor, all is carpeted.  We could not find the elevator but since it is only a two story building and we were tired, we just went up the stairs right into our room.  The room is spacious and even had a couch, microwave, and small fridge.  There were plenty of towels in the bathroom as well.  The A/C made a ton of noise and took me about 45 minutes to fall asleep.  I am a heavy sleeper so once I fell asleep I was fine.  However, if your not a heavy sleeper I can see how you would have a hard time sleeping because it is very loud.  The bed was comfortable but the pillows were not.  I woke up with a sore neck and my partner did too.  Finally, when we left and got to our car, we saw that someone busted the passenger side window of my car.  There are of course no cameras and the hotel took no liability what so ever.  They handed me the Houston's police department's phone number and send me my way.  Maybe I am biased on my review because of the busted window.  But I'm not a hard person to please.  But I would NOT recommend this hotel to anyone.  They are not cheap yet you get the experience of a cheap hotel.  Had I paid $50-80 for this room I would accept the conditions and even the busted window to my car and go on.  But they average rate for this place is $170.  Go somewhere else and stay at a safer place.  Please stay away from this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last Sunday night.  I arrived around 10:30pm and parked on the back since my room was the last one on the back.  The parking lot needs a lot more lighting.  The hallway had a musty odor, all is carpeted.  We could not find the elevator but since it is only a two story building and we were tired, we just went up the stairs right into our room.  The room is spacious and even had a couch, microwave, and small fridge.  There were plenty of towels in the bathroom as well.  The A/C made a ton of noise and took me about 45 minutes to fall asleep.  I am a heavy sleeper so once I fell asleep I was fine.  However, if your not a heavy sleeper I can see how you would have a hard time sleeping because it is very loud.  The bed was comfortable but the pillows were not.  I woke up with a sore neck and my partner did too.  
+Finally, when we left and got to our car, we saw that someone busted the passenger side window of my car.  There are of course no cameras and the hotel took no liability what so ever.  They handed me the Houston's police department's phone number and send me my way.  Maybe I am biased on my review because of the busted window.  But I'm not a hard person to please.  But...I stayed at this hotel last Sunday night.  I arrived around 10:30pm and parked on the back since my room was the last one on the back.  The parking lot needs a lot more lighting.  The hallway had a musty odor, all is carpeted.  We could not find the elevator but since it is only a two story building and we were tired, we just went up the stairs right into our room.  The room is spacious and even had a couch, microwave, and small fridge.  There were plenty of towels in the bathroom as well.  The A/C made a ton of noise and took me about 45 minutes to fall asleep.  I am a heavy sleeper so once I fell asleep I was fine.  However, if your not a heavy sleeper I can see how you would have a hard time sleeping because it is very loud.  The bed was comfortable but the pillows were not.  I woke up with a sore neck and my partner did too.  Finally, when we left and got to our car, we saw that someone busted the passenger side window of my car.  There are of course no cameras and the hotel took no liability what so ever.  They handed me the Houston's police department's phone number and send me my way.  Maybe I am biased on my review because of the busted window.  But I'm not a hard person to please.  But I would NOT recommend this hotel to anyone.  They are not cheap yet you get the experience of a cheap hotel.  Had I paid $50-80 for this room I would accept the conditions and even the busted window to my car and go on.  But they average rate for this place is $170.  Go somewhere else and stay at a safer place.  Please stay away from this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r361217793-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -561,15 +811,51 @@
     <t>It was a great location and we were able to get to fair grounds very easily on our own since there was no shuttle provided to rodeo.our stay was very comfortable and staff was very nice. Breakfast was great and our rooms were clean and comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r316832219-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316832219</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>AMAZING BANG FOR BUCK</t>
+  </si>
+  <si>
+    <t>Super  staff. Clean hotel with large rooms that offer a nice place away from home. I highly recommend anyone with looks or quality items stay here. Water fountain in front could use some bleach to stay consistently clean maybe even a algee eater once a week. Awesome breakfast however use real juice no one wants syrup. Overall I'll be back a lot. Thumbs up. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Super  staff. Clean hotel with large rooms that offer a nice place away from home. I highly recommend anyone with looks or quality items stay here. Water fountain in front could use some bleach to stay consistently clean maybe even a algee eater once a week. Awesome breakfast however use real juice no one wants syrup. Overall I'll be back a lot. Thumbs up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r313825795-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313825795</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>As the taxi turned into the road I thought what on earth had we come to!!! The building next door &amp; buildings opposite were all derelict &amp; run down.We had to walk past seedy show places to get something to eat on the 2nd night, the 1st night we ordered a Chinese Takeaway. We were too far away from the Space Center which is what we had gone to Houston for... about 33 miles so too expensive!!!! Having said that, the welcome was the best we have ever had on our numerous stays in America, all the staff were very helpful. The room was clean, no problems there &amp; the breakfast was certainly good enough.Pick up the Hotel &amp; its staff &amp; transport it elsewhere &amp; it would have got a higher rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>As the taxi turned into the road I thought what on earth had we come to!!! The building next door &amp; buildings opposite were all derelict &amp; run down.We had to walk past seedy show places to get something to eat on the 2nd night, the 1st night we ordered a Chinese Takeaway. We were too far away from the Space Center which is what we had gone to Houston for... about 33 miles so too expensive!!!! Having said that, the welcome was the best we have ever had on our numerous stays in America, all the staff were very helpful. The room was clean, no problems there &amp; the breakfast was certainly good enough.Pick up the Hotel &amp; its staff &amp; transport it elsewhere &amp; it would have got a higher rating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r313802104-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
     <t>313802104</t>
   </si>
   <si>
-    <t>09/26/2015</t>
-  </si>
-  <si>
     <t>Good Choice for this Area</t>
   </si>
   <si>
@@ -618,12 +904,45 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>After two years I got the chance to be back in Houston and decided  to return to this hotel. Again I was not disappointed. No rooms but real suites, including appliances to prepare food, plus mid afternoon snack in the lobby,  a pool, free parking and a convenient location in the Galleria district.  Just try it!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r285406835-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285406835</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the pictures</t>
+  </si>
+  <si>
+    <t>It definitely does not look as good in person as it does in the photos.  Its older, the Towles had a musty smell. In the bathroom it has the " if you forget anything just let us know" well we forgot deodorant and I went to ask for 1 mens deodorant and she said its $3.50. Seriously?  Never mind, we will wait until we find a walmart.  Right across rhe road is a shack. A very ugly shack, so if you want a good view dont stay here. Decent for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>It definitely does not look as good in person as it does in the photos.  Its older, the Towles had a musty smell. In the bathroom it has the " if you forget anything just let us know" well we forgot deodorant and I went to ask for 1 mens deodorant and she said its $3.50. Seriously?  Never mind, we will wait until we find a walmart.  Right across rhe road is a shack. A very ugly shack, so if you want a good view dont stay here. Decent for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r285355018-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285355018</t>
+  </si>
+  <si>
+    <t>Not great but not that bad</t>
+  </si>
+  <si>
+    <t>We stayed here because someone suggested we stay near the Galleria.  Maybe I am just not a fan of Houston but the Hotel was a lot like the city run down and full of weirdly dresses people.  The first room we checked into had water running in from the outside rain. The person who checked us in was super nice and moved us to second room and brought us bags of goodies. Great customer service.  The hotel has recently undergone a renovation that obviously did not include the HVAC system.  The second room still had a major dripping sound outside the window but no intrusion so that was better.The breakfast was subpar - more Texas shaped waffles.  The second night I opted for leftover pizza.  In general in a pinch you could stay here but don't expect too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here because someone suggested we stay near the Galleria.  Maybe I am just not a fan of Houston but the Hotel was a lot like the city run down and full of weirdly dresses people.  The first room we checked into had water running in from the outside rain. The person who checked us in was super nice and moved us to second room and brought us bags of goodies. Great customer service.  The hotel has recently undergone a renovation that obviously did not include the HVAC system.  The second room still had a major dripping sound outside the window but no intrusion so that was better.The breakfast was subpar - more Texas shaped waffles.  The second night I opted for leftover pizza.  In general in a pinch you could stay here but don't expect too much.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r284876553-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -682,6 +1001,45 @@
   </si>
   <si>
     <t>My wife and I stayed at this hotel for six days in March 2015. Large room (suite) with microwave oven, coffee-maker, ironing board and iron, good toilet, desk, table, etc. etc. A very good breakfast is included in the price. Friendly and helpful staff. Continental travellers would find it convenient to take an adaptor plug for their electrical gadgets. The rodeo was in town and so the price was a little up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r260353825-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260353825</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>top notch property</t>
+  </si>
+  <si>
+    <t>considering this properties location moment from the Galleria, less traffic great hospitality and awesome service. In the week I stayed there the entire staff was always ready to help with any needs and directions and restaurant recommendations.  They also made breakfast available to me early as I work early in the morning. Amazing hotel and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>considering this properties location moment from the Galleria, less traffic great hospitality and awesome service. In the week I stayed there the entire staff was always ready to help with any needs and directions and restaurant recommendations.  They also made breakfast available to me early as I work early in the morning. Amazing hotel and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r256217723-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256217723</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Very disappointing</t>
+  </si>
+  <si>
+    <t>Theses are not suites, they are rooms with a couch. Wifi is so undependable it would be more honest to say they have none. Location is NOT family friendly. One "club" next door left a flyer on our windshield while our car was parked in the hotel parking lot.  Not blaming the hotel, just warning families considering staying here. One morning at breakfast, the TV in the breakfast room was tuned to a show with shocking (even for today's culture) pornographic conversation, and the front desk employee refused to change the channel.  Tho we travel to Houston often, we will not return here. Ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>Theses are not suites, they are rooms with a couch. Wifi is so undependable it would be more honest to say they have none. Location is NOT family friendly. One "club" next door left a flyer on our windshield while our car was parked in the hotel parking lot.  Not blaming the hotel, just warning families considering staying here. One morning at breakfast, the TV in the breakfast room was tuned to a show with shocking (even for today's culture) pornographic conversation, and the front desk employee refused to change the channel.  Tho we travel to Houston often, we will not return here. Ever.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r244479275-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
@@ -761,6 +1119,48 @@
     <t>My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!
 I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!
 To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!...My experience was horrible!!  It is an independently owned franchise with a staff who has not been trained well at all.  I was in town for business for two days near the Galleria area.  I booked a room at the last minute because my usual hotel was overbooked and the other options were double the price. This hotel is located several blocks away on a street that has at least 5-10 strip clubs nearby.  Do not be fooled by the name THIS IS NOT the Galleria.  YOU GET WHAT YOU PAY FOR!!!I checked in late afternoon, changed my clothes, and headed to my Houston office for a meeting.  I went out to dinner with my colleagues arrived back to at the hotel that evening. My key card did not work, so I went down to the front desk to get it reactivated.  When I went BACK to my room ALL MY BELONGINGS HAD BEEN REMOVED.  I called down to the front desk and they told me the computer did not have me registered as a guest!!  I was then told I needed to come BACK down and retrieve my own belongings that they had taken out!!!  HORRIBLE!!To make matters worse, the staff person in charge showed no remorse or empathy at all. She blamed it all another staff member.  I discovered that my clothes had been thrown in my luggage and a bottle of expensive cologne was MISSING!!  I was too tired to complain anymore, so I went to bed planning on talking to someone in charge the next day.  The next morning I had to leave early for a morning meeting and the GM had not arrived.  I knew I would be gone most of the day, so left my phone number so the GM or owner could call me.  I NEVER got a call. I tried calling myself during the the day, but I was transferred to his VM.  The next morning as I was checking out and I asked the receptionist AGAIN if she could help me make contact with anyone in charge, but she told me there was no one available and she could not do anything.  She couldn't explain WHY my belongings were removed the night before, or WHY my property had been STOLEN from my room.  If you are NOT used to staying at a TRUCK STOP quality hotel near STRIP CLUBS with BAD ATTITUDE UNTRAINED STAFF and belongings could be at risk of THEFT!!!! DO NOT STAY HERE!!!!  You have been WARNED!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r220727331-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220727331</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Great value near the Galleria</t>
+  </si>
+  <si>
+    <t>My family and I stayed in two adjoining rooms in this hotel and enjoyed an excellent stay. We had two double beds in one room and a king in another. The rooms were quite spacious and there was no need to pull out the sofa bed also in the rooms. Both rooms had flat screen TV's,  a mini kitchen station with fridge, microwave, coffee maker that really came in handy with the kids. We were there over a few days and encountered several of the staff who were all courteous, helpful and nice. The rooms were incredibly clean. Breakfast was self serve but had several options. There was also a small mart area where you could pick up other food items, drinks and snacks. We would absolutely stay here again as we felt it was great value just 5 minutes drive from the Galleria. Our only issue with the hotel is the area is a little dicey. I would not want to hang around outside at night. But once you erie in and park it is fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed in two adjoining rooms in this hotel and enjoyed an excellent stay. We had two double beds in one room and a king in another. The rooms were quite spacious and there was no need to pull out the sofa bed also in the rooms. Both rooms had flat screen TV's,  a mini kitchen station with fridge, microwave, coffee maker that really came in handy with the kids. We were there over a few days and encountered several of the staff who were all courteous, helpful and nice. The rooms were incredibly clean. Breakfast was self serve but had several options. There was also a small mart area where you could pick up other food items, drinks and snacks. We would absolutely stay here again as we felt it was great value just 5 minutes drive from the Galleria. Our only issue with the hotel is the area is a little dicey. I would not want to hang around outside at night. But once you erie in and park it is fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r207198572-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207198572</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Quite a walk</t>
+  </si>
+  <si>
+    <t>Had really nice guy on desk who was also very helpful and informative.  The room was great, very big, very clean. Separated off little lounge area with coffee table and lounge (could have been a foldout one). Had a small kitchenette which was worth it's weight in gold as far as I am concerned.....just heat up some soup etc. in microwave, with some bread  and hey presto you have a light meal.  In the room I have had to come to terms with creamer for coffee though and no tea bags! The continental breakfast was terrific.....heaps of choice and plenty of it. My biggest concern is the fact that the galleria is not within walking distance as the name implies.  We walked mile or so, gave up  and went for a meal.....would have to have walked say another half mile then turned left at lights and then walked that much again or more to get near galleria!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Had really nice guy on desk who was also very helpful and informative.  The room was great, very big, very clean. Separated off little lounge area with coffee table and lounge (could have been a foldout one). Had a small kitchenette which was worth it's weight in gold as far as I am concerned.....just heat up some soup etc. in microwave, with some bread  and hey presto you have a light meal.  In the room I have had to come to terms with creamer for coffee though and no tea bags! The continental breakfast was terrific.....heaps of choice and plenty of it. My biggest concern is the fact that the galleria is not within walking distance as the name implies.  We walked mile or so, gave up  and went for a meal.....would have to have walked say another half mile then turned left at lights and then walked that much again or more to get near galleria!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r188313047-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
@@ -836,6 +1236,45 @@
 The couch was stained in multiple areas, obvious to anyone. The...I am writing this review mostly as a parent of a 2yr old. This hotel seems to suffer from a bad location combined with either financial issues or apathy of the management. I don't know the history of this place, maybe it was better when it was built, but the surrounding area is pretty nasty right now, and the hotel is not untouched by it.On our first day, I was walking with my daughter exploring the halls, and observed a prostitute and her client enter the room two doors down from mine, with her pimp/guardian waiting a bit further on. Sure, this can happen at any hotel, but it's the first time in all the hotels that I have used that I have observed this.Besides witnessing prostitution two doors down, my biggest issue is with the doors. There is no second deadbolt. It doesn't sound like a big deal, but if you have small children it is. The primary deadbolt automatically opens with the turn of the handle, meaning that your child can open the door from the inside. There is a secondary mechanism that allows the door to open about an inch, just the right size for little fingers. You can imagine the possibilities. There are stumps out front, crawling with fire ants, which attacked my daughters feet as she walked in the grass.Other cons: The couch was stained in multiple areas, obvious to anyone. The faucet was installed lopsided, and the handle and valve itself were completely dysfunctional. The closet is tiny. Pros: This hotel is actually okay. It has its issues, as listed above, and I'm sure there are more that I haven't noticed, but generally it is fine. The pool is great. It has waterfalls, which the kids love.The breakfast is good. Fairly typical of what you might expect.Our room had a mini fridge, as you would expect for something labeled a suite. Very important if you have kids. Flexible LED bedlights are a big plus, along with a separation wall that blocks the light to the other part of the room. We requested a porta-crib, and some extra pillows for ourselves, on short notice. Helped us with that quickly. If it wasn't for the issues of location, I would give Comfort Suites near the Galleria three stars. But seeing that there are panhandlers at every corner, and surely worse people that you don't see, derelict buildings, etc., I can't go average on this one.Also, I read some other reviews here, where the management said they were performing renovations in late 2012. They said this, but we had stained upholstered furniture and a terrible sink...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r162185105-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162185105</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Noisy and under construction</t>
+  </si>
+  <si>
+    <t>This hotel is being remodeled, that doesn't seem to hold them back renting out the rooms.I had the displeasure to stay in room 302 and when the generator turned on at 10:30 at night the hole wall started shaking and vibrating, it was like sleeping in a sound box.The bathroom had overflown by the previous renter so the floor was soaking wet.When I checked out pre maturely they just said sorry.UnbelievableMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This hotel is being remodeled, that doesn't seem to hold them back renting out the rooms.I had the displeasure to stay in room 302 and when the generator turned on at 10:30 at night the hole wall started shaking and vibrating, it was like sleeping in a sound box.The bathroom had overflown by the previous renter so the floor was soaking wet.When I checked out pre maturely they just said sorry.UnbelievableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r155342872-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155342872</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Galleria Area</t>
+  </si>
+  <si>
+    <t>Galleria Area is very misleading, it is about 4.5 miles from the Galleria, and in my opinion the location is not very good. The rooms need to be updated.  Old style heating and cooling unit, you are either hot or cold. Front desk staff was just acceptable not very helpful.  Asked for list of restaurants in the area, and they could not furnish.  Only restaurant they knew was Ruth Chris which is very close, but everyone doesn't ear at Ruth Chris.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r152773200-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -887,6 +1326,48 @@
     <t>This hotel does not let you become unhappy. Breakfast is sufficient and rooms are spacious. Mine had a big flatscreen, a small kitchen and a nice size fridge. The hotel is close to the galleria mall and nice bars. I would definitely stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r140730924-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140730924</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Pet friendly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We decided to evacuate for hurricane Isaac &amp; got a room here on a family &amp; friends discount for a few nights...Very clean! Whole hotel smelled good. Had my pitbulls with me she pretty much took over the living room area during the trip.Staff was very friendly &amp; the location was in my favorite area (Galleria) </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r134866530-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134866530</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Not up to the Comfort Suites standard</t>
+  </si>
+  <si>
+    <t>Hotel is in a rougher neighbourhood. Rooms were ok, but well worn and in need of renovation. The elevator felt like it might stop working at any time.Breakfast was ok, and the manager's reception had basic food items. Unlimited wine, but tickets required for beer.Overall, it is an ok choice if you get a good rate, but below the standard of a typical Comfort Suites hotel. I would probably stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>racheltx671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Hotel is in a rougher neighbourhood. Rooms were ok, but well worn and in need of renovation. The elevator felt like it might stop working at any time.Breakfast was ok, and the manager's reception had basic food items. Unlimited wine, but tickets required for beer.Overall, it is an ok choice if you get a good rate, but below the standard of a typical Comfort Suites hotel. I would probably stay elsewhere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r133132436-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -905,12 +1386,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>racheltx671, General Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded July 26, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 26, 2012</t>
-  </si>
-  <si>
     <t>Stayed here for a single night recently while visiting Houston museums.  I routinely stay at Comfort Suites and usually find them to be vey acceptable. However, although the Comfort Suites near the Galleria was OK, I'd definitely classify it as one of the poorer quality Comfort Suites I have stayed in. There were stains on the hall and room carpets, hallways were not air conditioned, paint was peeling from the base of a closet door in our room, the sheetrock on the ceiling of our bathroom was water damaged and cracked, there was a hole cut in the ceiling that the fire sprinkler stuck out of, and the hotel is in a bit of a sketchy area. On the plus side, rooms were comfortable and relatively quiet, a decent continental breakfast was included, and staff were friendly and efficient.  The property definitely needs to be renovated to bring it to Comfort Suites standards. Until it is, I will plan on staying elsewhere when in Houston.More</t>
   </si>
   <si>
@@ -954,6 +1429,53 @@
   </si>
   <si>
     <t>The accomodations at this location were not at all what I am accustomed to when I stay at a CS.  The hotel and its furniture were outdated, the breakfast was disappointing, our room smelled and the carpeting was dirty.  Beds were comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r131283478-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131283478</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>clean and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed there 2 nights and the hotel was very clean and comfortable ,had a great pool and breakfast. The surrounding area was a little sketchy . They did fix the lights in the parking lot and had a security vehicle on the grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there 2 nights and the hotel was very clean and comfortable ,had a great pool and breakfast. The surrounding area was a little sketchy . They did fix the lights in the parking lot and had a security vehicle on the grounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r128099462-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128099462</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Still Generally a Good Hotel, but they need to fix the parking lot lights</t>
+  </si>
+  <si>
+    <t>I stayed there in December of last year (see review), and pretty much all of my thoughts from the previous visit still stand.  I stayed there again for 4 nights in March of this year.  The only thing of any significance that bothered me, which I complained about on the first night, was there were several parking lot lights burned out in the back parking lot, which were not fixed during the time I was there.  Given the fact that this is in a high crime area (significant ghetto high crime area to the south, and all kinds of seedy types up and down Richmond), they need to be on the ball with security.  The first couple of nights I saw no security, and the security company car from the company they hire (which was parked in the back) never moved.  I did see them out and about the 3rd and 4th night I was there, and was glad to see them.  Not sure if they don't work 7 nights a week or what.  
+Regardless, given the area, not tending to burned out lights, which creates darkness for car break ins to occur or other shady activity, is unacceptable.  That back lot was creepy, and I found myself looking out my window several times during the night, hoping a parking space in front of the hotel (much better lighting and more activity---less chance of a break in) would open up....I stayed there in December of last year (see review), and pretty much all of my thoughts from the previous visit still stand.  I stayed there again for 4 nights in March of this year.  The only thing of any significance that bothered me, which I complained about on the first night, was there were several parking lot lights burned out in the back parking lot, which were not fixed during the time I was there.  Given the fact that this is in a high crime area (significant ghetto high crime area to the south, and all kinds of seedy types up and down Richmond), they need to be on the ball with security.  The first couple of nights I saw no security, and the security company car from the company they hire (which was parked in the back) never moved.  I did see them out and about the 3rd and 4th night I was there, and was glad to see them.  Not sure if they don't work 7 nights a week or what.  Regardless, given the area, not tending to burned out lights, which creates darkness for car break ins to occur or other shady activity, is unacceptable.  That back lot was creepy, and I found myself looking out my window several times during the night, hoping a parking space in front of the hotel (much better lighting and more activity---less chance of a break in) would open up.  I shouldn't have to sleep with one eye open, so to speak, worrying about the contents of my vehicle because I had to park in the dark.To a fair degree, I like this hotel, but if the manager takes his/her job seriously, they will be aggressive about the security of their patrons.  Having multiple lights burned out is the type of complacency that tells me the manager is a slacker.  When I drop nearly 500 bucks on a stay, I expect results.  Hence my 3 star assessment of what should be a 4 star review.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>racheltx671, Manager at Comfort Suites - Near the Galleria, responded to this reviewResponded April 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2012</t>
+  </si>
+  <si>
+    <t>I stayed there in December of last year (see review), and pretty much all of my thoughts from the previous visit still stand.  I stayed there again for 4 nights in March of this year.  The only thing of any significance that bothered me, which I complained about on the first night, was there were several parking lot lights burned out in the back parking lot, which were not fixed during the time I was there.  Given the fact that this is in a high crime area (significant ghetto high crime area to the south, and all kinds of seedy types up and down Richmond), they need to be on the ball with security.  The first couple of nights I saw no security, and the security company car from the company they hire (which was parked in the back) never moved.  I did see them out and about the 3rd and 4th night I was there, and was glad to see them.  Not sure if they don't work 7 nights a week or what.  
+Regardless, given the area, not tending to burned out lights, which creates darkness for car break ins to occur or other shady activity, is unacceptable.  That back lot was creepy, and I found myself looking out my window several times during the night, hoping a parking space in front of the hotel (much better lighting and more activity---less chance of a break in) would open up....I stayed there in December of last year (see review), and pretty much all of my thoughts from the previous visit still stand.  I stayed there again for 4 nights in March of this year.  The only thing of any significance that bothered me, which I complained about on the first night, was there were several parking lot lights burned out in the back parking lot, which were not fixed during the time I was there.  Given the fact that this is in a high crime area (significant ghetto high crime area to the south, and all kinds of seedy types up and down Richmond), they need to be on the ball with security.  The first couple of nights I saw no security, and the security company car from the company they hire (which was parked in the back) never moved.  I did see them out and about the 3rd and 4th night I was there, and was glad to see them.  Not sure if they don't work 7 nights a week or what.  Regardless, given the area, not tending to burned out lights, which creates darkness for car break ins to occur or other shady activity, is unacceptable.  That back lot was creepy, and I found myself looking out my window several times during the night, hoping a parking space in front of the hotel (much better lighting and more activity---less chance of a break in) would open up.  I shouldn't have to sleep with one eye open, so to speak, worrying about the contents of my vehicle because I had to park in the dark.To a fair degree, I like this hotel, but if the manager takes his/her job seriously, they will be aggressive about the security of their patrons.  Having multiple lights burned out is the type of complacency that tells me the manager is a slacker.  When I drop nearly 500 bucks on a stay, I expect results.  Hence my 3 star assessment of what should be a 4 star review.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r121669653-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
@@ -1023,6 +1545,45 @@
     <t>Look at my photos, they speak for themselves, it is just really run down. The managers reception is really chips and sodas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r121077359-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121077359</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel, very comfortable and conveniently located for the traveller</t>
+  </si>
+  <si>
+    <t>We were on our way south to Texas, and selected this hotel because the more we use the Comfort chain, the more confidence we have in their hotels. It is an easy off and on location from the I-59, and located in a quiet area. Check in was efficient, took a little longer than usual due to `computer problems`, but the end result was well worth it.A large King bed studio at the front of the hotel, with a large, clean bathroom, plenty of towels and amenities, and a large studio area, good refrigerator, microwave and coffee maker counter that left the computer desk, coffee table and sofa bed space free for TV watching, reading or writing hotel reviews. The bed was very comfortable, we slept well, but awoke early due to the EST-CST time change. Unfortunately, an early start was not possible, since the breakfast hours didn`t start till 7.00 am on weekends. The breakfast its self was very adequate, a mix of scrambled eggs and hash browns, with an assortment of cereals and breakfast pastriesMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We were on our way south to Texas, and selected this hotel because the more we use the Comfort chain, the more confidence we have in their hotels. It is an easy off and on location from the I-59, and located in a quiet area. Check in was efficient, took a little longer than usual due to `computer problems`, but the end result was well worth it.A large King bed studio at the front of the hotel, with a large, clean bathroom, plenty of towels and amenities, and a large studio area, good refrigerator, microwave and coffee maker counter that left the computer desk, coffee table and sofa bed space free for TV watching, reading or writing hotel reviews. The bed was very comfortable, we slept well, but awoke early due to the EST-CST time change. Unfortunately, an early start was not possible, since the breakfast hours didn`t start till 7.00 am on weekends. The breakfast its self was very adequate, a mix of scrambled eggs and hash browns, with an assortment of cereals and breakfast pastriesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r120537988-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120537988</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>hotel is better than avg but location could be better</t>
+  </si>
+  <si>
+    <t>didnt like the hotel given the area and the crowds in the hotel. hotel was fine oncr it quiet down but could be on a better blockMoreShow less</t>
+  </si>
+  <si>
+    <t>didnt like the hotel given the area and the crowds in the hotel. hotel was fine oncr it quiet down but could be on a better blockMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r119034222-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1636,45 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r116995448-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116995448</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Decent property, sketchy neighborhood</t>
+  </si>
+  <si>
+    <t>We spent one night at this hotel while in Houston visiting friends. The hotel property was clean, the room was clean, the pool looked inviting. In our room, a minor complaint was the air conditioner which was rattling just a bit. It was not enough of a problem for us to complain or change rooms. The bathroom was well-stocked. The bed was comfortable.This particular stretch of Richmond Ave in which the hotel is located is blighted though. We lived in Houston 18 years ago, and this area was vibrant and lively with clubs and restaurants. Most of those have closed, and according to friends, have relocated to downtown Houston. In the meantime, the buildings have remained empty mostly, or now house seedier clubs. We had chosen this location as we were meeting friends 3 blocks away at Pappasito's and figured we'd walk to and from so we could have several frozen margaritas. This is not a neighborhood I'd walk in at night. I had not realized how much this area had changed. I will reiterate that we had no problem with the hotel itself. Our car was just fine in the parking lot. The hotel's price per night is very reasonable. I would walk around the area in daylight and there are amenities just 3 blocks away.  If the neighborhood is not a concern, the location itself is good- 10 minutes from the Galleria and I-610.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night at this hotel while in Houston visiting friends. The hotel property was clean, the room was clean, the pool looked inviting. In our room, a minor complaint was the air conditioner which was rattling just a bit. It was not enough of a problem for us to complain or change rooms. The bathroom was well-stocked. The bed was comfortable.This particular stretch of Richmond Ave in which the hotel is located is blighted though. We lived in Houston 18 years ago, and this area was vibrant and lively with clubs and restaurants. Most of those have closed, and according to friends, have relocated to downtown Houston. In the meantime, the buildings have remained empty mostly, or now house seedier clubs. We had chosen this location as we were meeting friends 3 blocks away at Pappasito's and figured we'd walk to and from so we could have several frozen margaritas. This is not a neighborhood I'd walk in at night. I had not realized how much this area had changed. I will reiterate that we had no problem with the hotel itself. Our car was just fine in the parking lot. The hotel's price per night is very reasonable. I would walk around the area in daylight and there are amenities just 3 blocks away.  If the neighborhood is not a concern, the location itself is good- 10 minutes from the Galleria and I-610.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r111271442-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111271442</t>
+  </si>
+  <si>
+    <t>06/03/2011</t>
+  </si>
+  <si>
+    <t>Thought I'd found a good one</t>
+  </si>
+  <si>
+    <t>I travel to Houston on business regularly and chose the Comfort Suites for its convenience to my business location. I've stayed here before and thought I'd found the ideal location. My last stay was anything but pleasant. I was scheduled for early morning appointments, but each morning there was NO HOT WATER. Not the best way to prepare for important business meetings. Unfortunately, there was not anyone at the front desk at 6 am when I departed nor at 10 pm when I returned so I was unable to discuss my displeasure. Also, the occupants of the room next door kept their TV on almost the entire night--so not so peaceful sleep. Guess I'll continue my search for an affordable, convenient business hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I travel to Houston on business regularly and chose the Comfort Suites for its convenience to my business location. I've stayed here before and thought I'd found the ideal location. My last stay was anything but pleasant. I was scheduled for early morning appointments, but each morning there was NO HOT WATER. Not the best way to prepare for important business meetings. Unfortunately, there was not anyone at the front desk at 6 am when I departed nor at 10 pm when I returned so I was unable to discuss my displeasure. Also, the occupants of the room next door kept their TV on almost the entire night--so not so peaceful sleep. Guess I'll continue my search for an affordable, convenient business hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r90631582-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
@@ -1143,6 +1743,39 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r75995427-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75995427</t>
+  </si>
+  <si>
+    <t>08/19/2010</t>
+  </si>
+  <si>
+    <t>Awesome for wedding guests  for  THE Gallery venue</t>
+  </si>
+  <si>
+    <t>I found Rachel (the manager) very helpful and accomodating. They delivered the  guest wedding welcome bags I had made up and had them in our guests rooms when they checked in. Several of our guest mentioned the staff calling them about their rooms inquiring if they had any issues or questions. Great customer service!! The ONLY negative issue was that the hallways upstairs were NOT cooled. Given the energy issues today that was not as big of deal as it once would have been.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r70188746-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>70188746</t>
+  </si>
+  <si>
+    <t>07/08/2010</t>
+  </si>
+  <si>
+    <t>Very pleasant to stay</t>
+  </si>
+  <si>
+    <t>Staff is courteous, friendly and always aware of the needs of the guests. Very clean rooms and excellent selection on breakfast! Excellent place to stay for any business trip. Location very close to galleria.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r44698221-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1828,42 @@
   </si>
   <si>
     <t>1- Air conditioner in room was so loud it kept waking us up.  Can't do without it though, the room was quite hot.2-Wireless internet in the room is nice...when it works properly.  Never had such a hard time opening emails.  Tried all their available connections at different times of day, to no avail, slow and splotchy.  receptionist was no help, shrugged problem off.3- bathroom is nondescript, so is the room decor but clean.  Room only  had decaf tea, and the coffee maker was missing a part, rendering it unusable.  No sheets ready or stored in the room for sleeper sofa for my child. 4- lobby, breakfast area ok, forgetable.5- overall, not worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r21610672-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21610672</t>
+  </si>
+  <si>
+    <t>11/06/2008</t>
+  </si>
+  <si>
+    <t>It was OK</t>
+  </si>
+  <si>
+    <t>The location met my requirement for meeting with clients.  It was close to many eating establishments.  I felt it was overpriced for the quality of the facility. I will look around for a better price before staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r10079631-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10079631</t>
+  </si>
+  <si>
+    <t>10/14/2007</t>
+  </si>
+  <si>
+    <t>Worst experience ever</t>
+  </si>
+  <si>
+    <t>Extremely frustrating experience at this hotel.  It was almost as if they were trying to be that bad.  First, didn't have our reservation, even though we provided a confirmation number.  Then, put us into rooms across the street from a dance club with blaring music.  They refused to move us toward the back of the hotel.  Then, after reserving the room for four nights, they made us check out of rooms after two, only to check back in that night into the room two doors down.  Finally, that room did not have any hot water when I wanted a shower that night.Overall, a terrible experience.  I would recommend others look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>Extremely frustrating experience at this hotel.  It was almost as if they were trying to be that bad.  First, didn't have our reservation, even though we provided a confirmation number.  Then, put us into rooms across the street from a dance club with blaring music.  They refused to move us toward the back of the hotel.  Then, after reserving the room for four nights, they made us check out of rooms after two, only to check back in that night into the room two doors down.  Finally, that room did not have any hot water when I wanted a shower that night.Overall, a terrible experience.  I would recommend others look elsewhere.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107859-r8254197-Comfort_Suites_Near_the_Galleria-Houston_Texas.html</t>
@@ -1783,7 +2452,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1792,11 +2461,15 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1840,7 +2513,7 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -1849,16 +2522,16 @@
         <v>61</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1897,39 +2570,33 @@
         <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1966,7 +2633,7 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1983,14 +2650,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2006,52 +2669,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2067,7 +2732,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2076,49 +2741,45 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>93</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2134,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2143,25 +2804,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2172,14 +2833,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2195,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2204,49 +2861,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>93</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2262,7 +2909,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2271,25 +2918,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2301,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +2970,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2332,49 +2979,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2390,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2399,49 +3040,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2457,7 +3098,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2466,43 +3107,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2518,7 +3165,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2527,47 +3174,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -2583,7 +3232,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2592,47 +3241,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -2648,7 +3293,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2657,43 +3302,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2709,7 +3360,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2718,49 +3369,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2776,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2785,49 +3430,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2843,7 +3486,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2852,31 +3495,31 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
         <v>61</v>
       </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2886,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -2908,7 +3551,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2917,47 +3560,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X20" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
@@ -2973,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2982,43 +3627,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X21" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3034,7 +3685,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3043,25 +3694,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3073,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X22" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
@@ -3095,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3104,49 +3755,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -3162,7 +3807,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3171,47 +3816,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X24" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -3227,7 +3868,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3236,30 +3877,28 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>4</v>
       </c>
@@ -3272,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X25" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
@@ -3294,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3303,49 +3942,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
         <v>61</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="X26" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
@@ -3361,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3370,25 +4007,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3400,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -3422,7 +4059,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3431,49 +4068,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="X28" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -3489,7 +4120,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3498,49 +4129,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O29" t="s">
         <v>61</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>3</v>
       </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>169</v>
+      </c>
+      <c r="X29" t="s">
+        <v>170</v>
+      </c>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
@@ -3556,7 +4187,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3565,37 +4196,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>198</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3604,10 +4231,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" t="s">
+        <v>170</v>
+      </c>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
@@ -3623,7 +4254,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3632,34 +4263,34 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>3</v>
@@ -3668,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -3690,7 +4321,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3699,49 +4330,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>169</v>
+      </c>
+      <c r="X32" t="s">
+        <v>170</v>
+      </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
@@ -3757,7 +4386,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3766,45 +4395,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>169</v>
+      </c>
+      <c r="X33" t="s">
+        <v>170</v>
+      </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -3820,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3829,45 +4456,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
       <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X34" t="s">
+        <v>170</v>
+      </c>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
@@ -3883,7 +4512,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3892,38 +4521,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>4</v>
@@ -3932,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="X35" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -3954,7 +4577,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3963,53 +4586,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="O36" t="s">
-        <v>198</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
@@ -4025,7 +4638,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4034,53 +4647,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="X37" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
@@ -4096,7 +4699,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4105,53 +4708,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
@@ -4167,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4176,53 +4769,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
-      </c>
-      <c r="P39" t="n">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
         <v>2</v>
       </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="X39" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40">
@@ -4238,7 +4825,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4247,49 +4834,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>308</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="X40" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
@@ -4305,7 +4892,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4314,49 +4901,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>169</v>
+      </c>
+      <c r="X41" t="s">
+        <v>170</v>
+      </c>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
@@ -4372,7 +4957,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4381,49 +4966,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>169</v>
+      </c>
+      <c r="X42" t="s">
+        <v>170</v>
+      </c>
       <c r="Y42" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
@@ -4439,7 +5024,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4448,45 +5033,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J43" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>169</v>
+      </c>
+      <c r="X43" t="s">
+        <v>170</v>
+      </c>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
@@ -4502,7 +5089,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4511,49 +5098,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>169</v>
+      </c>
+      <c r="X44" t="s">
+        <v>170</v>
+      </c>
       <c r="Y44" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
@@ -4569,7 +5154,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4578,34 +5163,30 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4617,10 +5198,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>169</v>
+      </c>
+      <c r="X45" t="s">
+        <v>170</v>
+      </c>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
@@ -4636,7 +5221,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4645,49 +5230,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J46" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>349</v>
+      </c>
+      <c r="X46" t="s">
+        <v>350</v>
+      </c>
       <c r="Y46" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
@@ -4703,7 +5282,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4712,45 +5291,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>358</v>
+      </c>
+      <c r="X47" t="s">
+        <v>359</v>
+      </c>
       <c r="Y47" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48">
@@ -4766,7 +5349,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4775,49 +5358,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J48" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>358</v>
+      </c>
+      <c r="X48" t="s">
+        <v>359</v>
+      </c>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49">
@@ -4833,7 +5416,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4842,41 +5425,41 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
         <v>2</v>
       </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4884,7 +5467,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50">
@@ -4900,7 +5483,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4909,41 +5492,41 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4951,7 +5534,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
@@ -4967,7 +5550,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4976,35 +5559,41 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
-      </c>
-      <c r="R51" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5012,7 +5601,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
@@ -5028,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5037,35 +5626,2358 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s"/>
       <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>393</v>
+      </c>
+      <c r="X52" t="s">
+        <v>394</v>
+      </c>
       <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
         <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>393</v>
+      </c>
+      <c r="X53" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>403</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>404</v>
+      </c>
+      <c r="J54" t="s">
+        <v>405</v>
+      </c>
+      <c r="K54" t="s">
+        <v>406</v>
+      </c>
+      <c r="L54" t="s">
+        <v>407</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>408</v>
+      </c>
+      <c r="O54" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>416</v>
+      </c>
+      <c r="J56" t="s">
+        <v>417</v>
+      </c>
+      <c r="K56" t="s">
+        <v>418</v>
+      </c>
+      <c r="L56" t="s">
+        <v>419</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s">
+        <v>425</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>431</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>432</v>
+      </c>
+      <c r="J59" t="s">
+        <v>433</v>
+      </c>
+      <c r="K59" t="s">
+        <v>434</v>
+      </c>
+      <c r="L59" t="s">
+        <v>435</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>436</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>437</v>
+      </c>
+      <c r="X59" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>445</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>437</v>
+      </c>
+      <c r="X60" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+      <c r="J61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" t="s">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s">
+        <v>451</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>452</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>453</v>
+      </c>
+      <c r="X61" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>457</v>
+      </c>
+      <c r="J62" t="s">
+        <v>449</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>445</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>453</v>
+      </c>
+      <c r="X62" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>445</v>
+      </c>
+      <c r="O63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>453</v>
+      </c>
+      <c r="X63" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>473</v>
+      </c>
+      <c r="X64" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>476</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>477</v>
+      </c>
+      <c r="J65" t="s">
+        <v>478</v>
+      </c>
+      <c r="K65" t="s">
+        <v>479</v>
+      </c>
+      <c r="L65" t="s">
+        <v>480</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>481</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>482</v>
+      </c>
+      <c r="X65" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" t="s">
+        <v>487</v>
+      </c>
+      <c r="K66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>482</v>
+      </c>
+      <c r="X66" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>492</v>
+      </c>
+      <c r="J67" t="s">
+        <v>493</v>
+      </c>
+      <c r="K67" t="s">
+        <v>494</v>
+      </c>
+      <c r="L67" t="s">
+        <v>495</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>482</v>
+      </c>
+      <c r="X67" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>497</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>498</v>
+      </c>
+      <c r="J68" t="s">
+        <v>499</v>
+      </c>
+      <c r="K68" t="s">
+        <v>500</v>
+      </c>
+      <c r="L68" t="s">
+        <v>501</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>502</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>482</v>
+      </c>
+      <c r="X68" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>504</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>505</v>
+      </c>
+      <c r="J69" t="s">
+        <v>506</v>
+      </c>
+      <c r="K69" t="s">
+        <v>507</v>
+      </c>
+      <c r="L69" t="s">
+        <v>508</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>482</v>
+      </c>
+      <c r="X69" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>510</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>511</v>
+      </c>
+      <c r="J70" t="s">
+        <v>512</v>
+      </c>
+      <c r="K70" t="s">
+        <v>513</v>
+      </c>
+      <c r="L70" t="s">
+        <v>514</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>515</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" t="s">
+        <v>520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>523</v>
+      </c>
+      <c r="J72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L72" t="s">
+        <v>526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>528</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>529</v>
+      </c>
+      <c r="J73" t="s">
+        <v>530</v>
+      </c>
+      <c r="K73" t="s">
+        <v>531</v>
+      </c>
+      <c r="L73" t="s">
+        <v>532</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>527</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>535</v>
+      </c>
+      <c r="J74" t="s">
+        <v>536</v>
+      </c>
+      <c r="K74" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" t="s">
+        <v>538</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>539</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>541</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>542</v>
+      </c>
+      <c r="J75" t="s">
+        <v>543</v>
+      </c>
+      <c r="K75" t="s">
+        <v>544</v>
+      </c>
+      <c r="L75" t="s">
+        <v>545</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>546</v>
+      </c>
+      <c r="O75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K76" t="s">
+        <v>551</v>
+      </c>
+      <c r="L76" t="s">
+        <v>552</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>553</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>556</v>
+      </c>
+      <c r="J77" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>558</v>
+      </c>
+      <c r="L77" t="s">
+        <v>559</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>560</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>561</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>562</v>
+      </c>
+      <c r="J78" t="s">
+        <v>563</v>
+      </c>
+      <c r="K78" t="s">
+        <v>564</v>
+      </c>
+      <c r="L78" t="s">
+        <v>565</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>566</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>567</v>
+      </c>
+      <c r="J79" t="s">
+        <v>568</v>
+      </c>
+      <c r="K79" t="s">
+        <v>569</v>
+      </c>
+      <c r="L79" t="s">
+        <v>570</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>571</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>573</v>
+      </c>
+      <c r="J80" t="s">
+        <v>574</v>
+      </c>
+      <c r="K80" t="s">
+        <v>575</v>
+      </c>
+      <c r="L80" t="s">
+        <v>576</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>577</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>578</v>
+      </c>
+      <c r="J81" t="s">
+        <v>579</v>
+      </c>
+      <c r="K81" t="s">
+        <v>580</v>
+      </c>
+      <c r="L81" t="s">
+        <v>581</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>582</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>583</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>584</v>
+      </c>
+      <c r="J82" t="s">
+        <v>585</v>
+      </c>
+      <c r="K82" t="s">
+        <v>586</v>
+      </c>
+      <c r="L82" t="s">
+        <v>587</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>588</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>591</v>
+      </c>
+      <c r="J83" t="s">
+        <v>592</v>
+      </c>
+      <c r="K83" t="s">
+        <v>593</v>
+      </c>
+      <c r="L83" t="s">
+        <v>594</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>595</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>596</v>
+      </c>
+      <c r="J84" t="s">
+        <v>597</v>
+      </c>
+      <c r="K84" t="s">
+        <v>598</v>
+      </c>
+      <c r="L84" t="s">
+        <v>599</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>600</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>602</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>603</v>
+      </c>
+      <c r="J85" t="s">
+        <v>604</v>
+      </c>
+      <c r="K85" t="s">
+        <v>605</v>
+      </c>
+      <c r="L85" t="s">
+        <v>606</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>607</v>
+      </c>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>609</v>
+      </c>
+      <c r="J86" t="s">
+        <v>610</v>
+      </c>
+      <c r="K86" t="s">
+        <v>611</v>
+      </c>
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32645</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>614</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>615</v>
+      </c>
+      <c r="J87" t="s">
+        <v>616</v>
+      </c>
+      <c r="K87" t="s">
+        <v>617</v>
+      </c>
+      <c r="L87" t="s">
+        <v>618</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
